--- a/JupyterNotebooks/AvgHW/O554F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -740,22 +632,22 @@
         <v>0.9992897469496687</v>
       </c>
       <c r="E3">
-        <v>1.000177562630677</v>
+        <v>0.9992897469496687</v>
       </c>
       <c r="F3">
         <v>1.000177562630677</v>
       </c>
       <c r="G3">
+        <v>1.000177562630677</v>
+      </c>
+      <c r="H3">
         <v>1.000473500403536</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.999609359821213</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.000177562630677</v>
-      </c>
-      <c r="J3">
-        <v>0.9992897469496687</v>
       </c>
       <c r="K3">
         <v>1.000177562630677</v>
@@ -788,7 +680,7 @@
         <v>0.9999842158444081</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -799,25 +691,25 @@
         <v>1.000342783785597</v>
       </c>
       <c r="D4">
-        <v>0.998628864621817</v>
+        <v>0.9986288646218171</v>
       </c>
       <c r="E4">
-        <v>1.000342783785597</v>
+        <v>0.9986288646218171</v>
       </c>
       <c r="F4">
         <v>1.000342783785597</v>
       </c>
       <c r="G4">
+        <v>1.000342783785597</v>
+      </c>
+      <c r="H4">
         <v>1.00091408876045</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.9992458762923303</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.000342783785597</v>
-      </c>
-      <c r="J4">
-        <v>0.998628864621817</v>
       </c>
       <c r="K4">
         <v>1.000342783785597</v>
@@ -826,10 +718,10 @@
         <v>1.000342783785597</v>
       </c>
       <c r="M4">
-        <v>0.999485824203707</v>
+        <v>0.9994858242037071</v>
       </c>
       <c r="N4">
-        <v>0.999485824203707</v>
+        <v>0.9994858242037071</v>
       </c>
       <c r="O4">
         <v>0.9994058415665815</v>
@@ -850,7 +742,7 @@
         <v>0.9999695301718982</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -861,25 +753,25 @@
         <v>1.000656904701122</v>
       </c>
       <c r="D5">
-        <v>0.9973723859713037</v>
+        <v>0.9973723859713036</v>
       </c>
       <c r="E5">
-        <v>1.000656904701122</v>
+        <v>0.9973723859713036</v>
       </c>
       <c r="F5">
         <v>1.000656904701122</v>
       </c>
       <c r="G5">
+        <v>1.000656904701122</v>
+      </c>
+      <c r="H5">
         <v>1.001751740416642</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.9985548114011782</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.000656904701122</v>
-      </c>
-      <c r="J5">
-        <v>0.9973723859713037</v>
       </c>
       <c r="K5">
         <v>1.000656904701122</v>
@@ -912,7 +804,7 @@
         <v>0.9999416086487484</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -926,22 +818,22 @@
         <v>0.9961461324032457</v>
       </c>
       <c r="E6">
-        <v>1.000963470611183</v>
+        <v>0.9961461324032457</v>
       </c>
       <c r="F6">
         <v>1.000963470611183</v>
       </c>
       <c r="G6">
+        <v>1.000963470611183</v>
+      </c>
+      <c r="H6">
         <v>1.002569242737172</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.9978803745681247</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1.000963470611183</v>
-      </c>
-      <c r="J6">
-        <v>0.9961461324032457</v>
       </c>
       <c r="K6">
         <v>1.000963470611183</v>
@@ -974,7 +866,7 @@
         <v>0.999914360257015</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -988,22 +880,22 @@
         <v>0.9999519783418052</v>
       </c>
       <c r="E7">
-        <v>1.000012004429357</v>
+        <v>0.9999519783418052</v>
       </c>
       <c r="F7">
         <v>1.000012004429357</v>
       </c>
       <c r="G7">
+        <v>1.000012004429357</v>
+      </c>
+      <c r="H7">
         <v>1.00003201275031</v>
       </c>
-      <c r="H7">
-        <v>0.9999735870908835</v>
-      </c>
       <c r="I7">
+        <v>0.9999735870908832</v>
+      </c>
+      <c r="J7">
         <v>1.000012004429357</v>
-      </c>
-      <c r="J7">
-        <v>0.9999519783418052</v>
       </c>
       <c r="K7">
         <v>1.000012004429357</v>
@@ -1033,10 +925,10 @@
         <v>0.999996997907469</v>
       </c>
       <c r="T7">
-        <v>0.9999989319118451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.9999989319118449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1050,22 +942,22 @@
         <v>0.9998818566735191</v>
       </c>
       <c r="E8">
-        <v>1.000029534586767</v>
+        <v>0.9998818566735191</v>
       </c>
       <c r="F8">
         <v>1.000029534586767</v>
       </c>
       <c r="G8">
+        <v>1.000029534586767</v>
+      </c>
+      <c r="H8">
         <v>1.000078760347863</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.9999350202918704</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.000029534586767</v>
-      </c>
-      <c r="J8">
-        <v>0.9998818566735191</v>
       </c>
       <c r="K8">
         <v>1.000029534586767</v>
@@ -1098,7 +990,7 @@
         <v>0.999997373512259</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1112,22 +1004,22 @@
         <v>0.9998417469650833</v>
       </c>
       <c r="E9">
-        <v>1.000039562516712</v>
+        <v>0.9998417469650833</v>
       </c>
       <c r="F9">
         <v>1.000039562516712</v>
       </c>
       <c r="G9">
+        <v>1.000039562516712</v>
+      </c>
+      <c r="H9">
         <v>1.000105500420685</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.9999129594989009</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1.000039562516712</v>
-      </c>
-      <c r="J9">
-        <v>0.9998417469650833</v>
       </c>
       <c r="K9">
         <v>1.000039562516712</v>
@@ -1160,7 +1052,7 @@
         <v>0.999996482405801</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,34 +1060,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00008693844367</v>
+        <v>1.000086938443669</v>
       </c>
       <c r="D10">
-        <v>0.9996522468494728</v>
+        <v>0.999652246849473</v>
       </c>
       <c r="E10">
-        <v>1.00008693844367</v>
+        <v>0.999652246849473</v>
       </c>
       <c r="F10">
-        <v>1.00008693844367</v>
+        <v>1.000086938443669</v>
       </c>
       <c r="G10">
+        <v>1.000086938443669</v>
+      </c>
+      <c r="H10">
         <v>1.000231834910702</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.9998087338358388</v>
       </c>
-      <c r="I10">
-        <v>1.00008693844367</v>
-      </c>
       <c r="J10">
-        <v>0.9996522468494728</v>
+        <v>1.000086938443669</v>
       </c>
       <c r="K10">
-        <v>1.00008693844367</v>
+        <v>1.000086938443669</v>
       </c>
       <c r="L10">
-        <v>1.00008693844367</v>
+        <v>1.000086938443669</v>
       </c>
       <c r="M10">
         <v>0.9998695926465713</v>
@@ -1207,22 +1099,22 @@
         <v>0.9998493063763272</v>
       </c>
       <c r="P10">
-        <v>0.9999420412456042</v>
+        <v>0.999942041245604</v>
       </c>
       <c r="Q10">
-        <v>0.9999420412456042</v>
+        <v>0.999942041245604</v>
       </c>
       <c r="R10">
-        <v>0.9999782655451206</v>
+        <v>0.9999782655451204</v>
       </c>
       <c r="S10">
-        <v>0.9999782655451206</v>
+        <v>0.9999782655451204</v>
       </c>
       <c r="T10">
-        <v>0.9999922718211706</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>0.9999922718211703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1233,25 +1125,25 @@
         <v>1.000140070328065</v>
       </c>
       <c r="D11">
-        <v>0.9994397158783807</v>
+        <v>0.9994397158783804</v>
       </c>
       <c r="E11">
-        <v>1.000140070328065</v>
+        <v>0.9994397158783804</v>
       </c>
       <c r="F11">
         <v>1.000140070328065</v>
       </c>
       <c r="G11">
+        <v>1.000140070328065</v>
+      </c>
+      <c r="H11">
         <v>1.000373519985333</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.9996918427100602</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.000140070328065</v>
-      </c>
-      <c r="J11">
-        <v>0.9994397158783807</v>
       </c>
       <c r="K11">
         <v>1.000140070328065</v>
@@ -1284,7 +1176,7 @@
         <v>0.9999875482596612</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1298,22 +1190,22 @@
         <v>1.005043288796453</v>
       </c>
       <c r="E12">
-        <v>0.9987391737253933</v>
+        <v>1.005043288796453</v>
       </c>
       <c r="F12">
         <v>0.9987391737253933</v>
       </c>
       <c r="G12">
+        <v>0.9987391737253933</v>
+      </c>
+      <c r="H12">
         <v>0.9966378058231855</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.002773808974117</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.9987391737253933</v>
-      </c>
-      <c r="J12">
-        <v>1.005043288796453</v>
       </c>
       <c r="K12">
         <v>0.9987391737253933</v>
@@ -1346,7 +1238,7 @@
         <v>1.000112070794989</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996748642246593</v>
+        <v>0.9996748642246595</v>
       </c>
       <c r="D13">
         <v>1.001300539080104</v>
       </c>
       <c r="E13">
-        <v>0.9996748642246593</v>
+        <v>1.001300539080104</v>
       </c>
       <c r="F13">
-        <v>0.9996748642246593</v>
+        <v>0.9996748642246595</v>
       </c>
       <c r="G13">
-        <v>0.9991329731329354</v>
+        <v>0.9996748642246595</v>
       </c>
       <c r="H13">
+        <v>0.9991329731329355</v>
+      </c>
+      <c r="I13">
         <v>1.000715292336611</v>
       </c>
-      <c r="I13">
-        <v>0.9996748642246593</v>
-      </c>
       <c r="J13">
-        <v>1.001300539080104</v>
+        <v>0.9996748642246595</v>
       </c>
       <c r="K13">
-        <v>0.9996748642246593</v>
+        <v>0.9996748642246595</v>
       </c>
       <c r="L13">
-        <v>0.9996748642246593</v>
+        <v>0.9996748642246595</v>
       </c>
       <c r="M13">
         <v>1.000487701652382</v>
@@ -1408,7 +1300,7 @@
         <v>1.000028899537271</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1422,22 +1314,22 @@
         <v>1.014826042801522</v>
       </c>
       <c r="E14">
-        <v>0.9962934937700573</v>
+        <v>1.014826042801522</v>
       </c>
       <c r="F14">
         <v>0.9962934937700573</v>
       </c>
       <c r="G14">
+        <v>0.9962934937700573</v>
+      </c>
+      <c r="H14">
         <v>0.9901159739531828</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.008154316900208</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.9962934937700573</v>
-      </c>
-      <c r="J14">
-        <v>1.014826042801522</v>
       </c>
       <c r="K14">
         <v>0.9962934937700573</v>
@@ -1470,7 +1362,7 @@
         <v>1.000329469160848</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1481,25 +1373,25 @@
         <v>0.9990232498566435</v>
       </c>
       <c r="D15">
-        <v>1.003907008956703</v>
+        <v>1.003907008956704</v>
       </c>
       <c r="E15">
-        <v>0.9990232498566435</v>
+        <v>1.003907008956704</v>
       </c>
       <c r="F15">
         <v>0.9990232498566435</v>
       </c>
       <c r="G15">
+        <v>0.9990232498566435</v>
+      </c>
+      <c r="H15">
         <v>0.9973953295656443</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.002148852977154</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.9990232498566435</v>
-      </c>
-      <c r="J15">
-        <v>1.003907008956703</v>
       </c>
       <c r="K15">
         <v>0.9990232498566435</v>
@@ -1508,10 +1400,10 @@
         <v>0.9990232498566435</v>
       </c>
       <c r="M15">
-        <v>1.001465129406673</v>
+        <v>1.001465129406674</v>
       </c>
       <c r="N15">
-        <v>1.001465129406673</v>
+        <v>1.001465129406674</v>
       </c>
       <c r="O15">
         <v>1.0016930372635</v>
@@ -1532,7 +1424,7 @@
         <v>1.000086823511572</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000732121002</v>
+        <v>1.003462999059081</v>
       </c>
       <c r="D16">
-        <v>0.99999706731769</v>
+        <v>0.9861480254336547</v>
       </c>
       <c r="E16">
-        <v>1.000000732121002</v>
+        <v>0.9861480254336547</v>
       </c>
       <c r="F16">
-        <v>1.000000732121002</v>
+        <v>1.003462999059081</v>
       </c>
       <c r="G16">
-        <v>1.000001953660896</v>
+        <v>1.003462999059081</v>
       </c>
       <c r="H16">
-        <v>0.9999983859828936</v>
+        <v>1.009234643129855</v>
       </c>
       <c r="I16">
-        <v>1.000000732121002</v>
+        <v>0.9923814151561814</v>
       </c>
       <c r="J16">
-        <v>0.99999706731769</v>
+        <v>1.003462999059081</v>
       </c>
       <c r="K16">
-        <v>1.000000732121002</v>
+        <v>1.003462999059081</v>
       </c>
       <c r="L16">
-        <v>1.000000732121002</v>
+        <v>1.003462999059081</v>
       </c>
       <c r="M16">
-        <v>0.9999988997193459</v>
+        <v>0.9948055122463679</v>
       </c>
       <c r="N16">
-        <v>0.9999988997193459</v>
+        <v>0.9948055122463679</v>
       </c>
       <c r="O16">
-        <v>0.9999987284738617</v>
+        <v>0.9939974798829724</v>
       </c>
       <c r="P16">
-        <v>0.9999995105198979</v>
+        <v>0.9976913411839391</v>
       </c>
       <c r="Q16">
-        <v>0.9999995105198979</v>
+        <v>0.9976913411839391</v>
       </c>
       <c r="R16">
-        <v>0.999999815920174</v>
+        <v>0.9991342556527247</v>
       </c>
       <c r="S16">
-        <v>0.999999815920174</v>
+        <v>0.9991342556527247</v>
       </c>
       <c r="T16">
-        <v>0.999999933887414</v>
+        <v>0.9996921801494891</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000015527383391</v>
+        <v>1.002832490301434</v>
       </c>
       <c r="D17">
-        <v>0.999937887389424</v>
+        <v>0.9886700535999944</v>
       </c>
       <c r="E17">
-        <v>1.000015527383391</v>
+        <v>0.9886700535999944</v>
       </c>
       <c r="F17">
-        <v>1.000015527383391</v>
+        <v>1.002832490301434</v>
       </c>
       <c r="G17">
-        <v>1.000041406958194</v>
+        <v>1.002832490301434</v>
       </c>
       <c r="H17">
-        <v>0.9999658369646389</v>
+        <v>1.007553292197111</v>
       </c>
       <c r="I17">
-        <v>1.000015527383391</v>
+        <v>0.993768529945709</v>
       </c>
       <c r="J17">
-        <v>0.999937887389424</v>
+        <v>1.002832490301434</v>
       </c>
       <c r="K17">
-        <v>1.000015527383391</v>
+        <v>1.002832490301434</v>
       </c>
       <c r="L17">
-        <v>1.000015527383391</v>
+        <v>1.002832490301434</v>
       </c>
       <c r="M17">
-        <v>0.9999767073864075</v>
+        <v>0.995751271950714</v>
       </c>
       <c r="N17">
-        <v>0.9999767073864075</v>
+        <v>0.995751271950714</v>
       </c>
       <c r="O17">
-        <v>0.9999730839124847</v>
+        <v>0.9950903579490457</v>
       </c>
       <c r="P17">
-        <v>0.9999896473854021</v>
+        <v>0.9981116780676205</v>
       </c>
       <c r="Q17">
-        <v>0.9999896473854021</v>
+        <v>0.9981116780676205</v>
       </c>
       <c r="R17">
-        <v>0.9999961173848994</v>
+        <v>0.9992918811260738</v>
       </c>
       <c r="S17">
-        <v>0.9999961173848994</v>
+        <v>0.9992918811260738</v>
       </c>
       <c r="T17">
-        <v>0.999998618910405</v>
+        <v>0.9997482244411858</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000054672108268</v>
+        <v>1.001562246108191</v>
       </c>
       <c r="D18">
-        <v>0.9997813198505049</v>
+        <v>0.993751023160257</v>
       </c>
       <c r="E18">
-        <v>1.000054672108268</v>
+        <v>0.993751023160257</v>
       </c>
       <c r="F18">
-        <v>1.000054672108268</v>
+        <v>1.001562246108191</v>
       </c>
       <c r="G18">
-        <v>1.000145785037504</v>
+        <v>1.001562246108191</v>
       </c>
       <c r="H18">
-        <v>0.9998797233996435</v>
+        <v>1.004165983401715</v>
       </c>
       <c r="I18">
-        <v>1.000054672108268</v>
+        <v>0.9965630597397052</v>
       </c>
       <c r="J18">
-        <v>0.9997813198505049</v>
+        <v>1.001562246108191</v>
       </c>
       <c r="K18">
-        <v>1.000054672108268</v>
+        <v>1.001562246108191</v>
       </c>
       <c r="L18">
-        <v>1.000054672108268</v>
+        <v>1.001562246108191</v>
       </c>
       <c r="M18">
-        <v>0.9999179959793867</v>
+        <v>0.9976566346342242</v>
       </c>
       <c r="N18">
-        <v>0.9999179959793867</v>
+        <v>0.9976566346342242</v>
       </c>
       <c r="O18">
-        <v>0.9999052384528057</v>
+        <v>0.9972921096693845</v>
       </c>
       <c r="P18">
-        <v>0.999963554689014</v>
+        <v>0.9989585051255464</v>
       </c>
       <c r="Q18">
-        <v>0.999963554689014</v>
+        <v>0.9989585051255464</v>
       </c>
       <c r="R18">
-        <v>0.9999863340438275</v>
+        <v>0.9996094403712077</v>
       </c>
       <c r="S18">
-        <v>0.9999863340438275</v>
+        <v>0.9996094403712077</v>
       </c>
       <c r="T18">
-        <v>0.999995140768743</v>
+        <v>0.9998611341043753</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.001712299137719</v>
+      </c>
+      <c r="D19">
+        <v>0.9931507994591321</v>
+      </c>
+      <c r="E19">
+        <v>0.9931507994591321</v>
+      </c>
+      <c r="F19">
+        <v>1.001712299137719</v>
+      </c>
+      <c r="G19">
+        <v>1.001712299137719</v>
+      </c>
+      <c r="H19">
+        <v>1.00456612981508</v>
+      </c>
+      <c r="I19">
+        <v>0.9962329364411734</v>
+      </c>
+      <c r="J19">
+        <v>1.001712299137719</v>
+      </c>
+      <c r="K19">
+        <v>1.001712299137719</v>
+      </c>
+      <c r="L19">
+        <v>1.001712299137719</v>
+      </c>
+      <c r="M19">
+        <v>0.9974315492984256</v>
+      </c>
+      <c r="N19">
+        <v>0.9974315492984256</v>
+      </c>
+      <c r="O19">
+        <v>0.9970320116793415</v>
+      </c>
+      <c r="P19">
+        <v>0.9988584659115235</v>
+      </c>
+      <c r="Q19">
+        <v>0.9988584659115235</v>
+      </c>
+      <c r="R19">
+        <v>0.9995719242180725</v>
+      </c>
+      <c r="S19">
+        <v>0.9995719242180725</v>
+      </c>
+      <c r="T19">
+        <v>0.9998477938547571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000000732121002</v>
+      </c>
+      <c r="D20">
+        <v>0.99999706731769</v>
+      </c>
+      <c r="E20">
+        <v>0.99999706731769</v>
+      </c>
+      <c r="F20">
+        <v>1.000000732121002</v>
+      </c>
+      <c r="G20">
+        <v>1.000000732121002</v>
+      </c>
+      <c r="H20">
+        <v>1.000001953660895</v>
+      </c>
+      <c r="I20">
+        <v>0.9999983859828933</v>
+      </c>
+      <c r="J20">
+        <v>1.000000732121002</v>
+      </c>
+      <c r="K20">
+        <v>1.000000732121002</v>
+      </c>
+      <c r="L20">
+        <v>1.000000732121002</v>
+      </c>
+      <c r="M20">
+        <v>0.9999988997193459</v>
+      </c>
+      <c r="N20">
+        <v>0.9999988997193459</v>
+      </c>
+      <c r="O20">
+        <v>0.9999987284738617</v>
+      </c>
+      <c r="P20">
+        <v>0.9999995105198979</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999995105198979</v>
+      </c>
+      <c r="R20">
+        <v>0.999999815920174</v>
+      </c>
+      <c r="S20">
+        <v>0.999999815920174</v>
+      </c>
+      <c r="T20">
+        <v>0.999999933887414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000015527383392</v>
+      </c>
+      <c r="D21">
+        <v>0.9999378873894239</v>
+      </c>
+      <c r="E21">
+        <v>0.9999378873894239</v>
+      </c>
+      <c r="F21">
+        <v>1.000015527383392</v>
+      </c>
+      <c r="G21">
+        <v>1.000015527383392</v>
+      </c>
+      <c r="H21">
+        <v>1.000041406958194</v>
+      </c>
+      <c r="I21">
+        <v>0.9999658369646389</v>
+      </c>
+      <c r="J21">
+        <v>1.000015527383392</v>
+      </c>
+      <c r="K21">
+        <v>1.000015527383392</v>
+      </c>
+      <c r="L21">
+        <v>1.000015527383392</v>
+      </c>
+      <c r="M21">
+        <v>0.9999767073864076</v>
+      </c>
+      <c r="N21">
+        <v>0.9999767073864076</v>
+      </c>
+      <c r="O21">
+        <v>0.9999730839124847</v>
+      </c>
+      <c r="P21">
+        <v>0.9999896473854023</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999896473854023</v>
+      </c>
+      <c r="R21">
+        <v>0.9999961173848996</v>
+      </c>
+      <c r="S21">
+        <v>0.9999961173848996</v>
+      </c>
+      <c r="T21">
+        <v>0.9999986189104052</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000054672108268</v>
+      </c>
+      <c r="D22">
+        <v>0.9997813198505049</v>
+      </c>
+      <c r="E22">
+        <v>0.9997813198505049</v>
+      </c>
+      <c r="F22">
+        <v>1.000054672108268</v>
+      </c>
+      <c r="G22">
+        <v>1.000054672108268</v>
+      </c>
+      <c r="H22">
+        <v>1.000145785037504</v>
+      </c>
+      <c r="I22">
+        <v>0.9998797233996437</v>
+      </c>
+      <c r="J22">
+        <v>1.000054672108268</v>
+      </c>
+      <c r="K22">
+        <v>1.000054672108268</v>
+      </c>
+      <c r="L22">
+        <v>1.000054672108268</v>
+      </c>
+      <c r="M22">
+        <v>0.9999179959793867</v>
+      </c>
+      <c r="N22">
+        <v>0.9999179959793867</v>
+      </c>
+      <c r="O22">
+        <v>0.9999052384528057</v>
+      </c>
+      <c r="P22">
+        <v>0.999963554689014</v>
+      </c>
+      <c r="Q22">
+        <v>0.999963554689014</v>
+      </c>
+      <c r="R22">
+        <v>0.9999863340438275</v>
+      </c>
+      <c r="S22">
+        <v>0.9999863340438275</v>
+      </c>
+      <c r="T22">
+        <v>0.9999951407687431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.000128074664341</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>0.9994876928119305</v>
       </c>
-      <c r="E19">
+      <c r="E23">
+        <v>0.9994876928119305</v>
+      </c>
+      <c r="F23">
         <v>1.000128074664341</v>
       </c>
-      <c r="F19">
+      <c r="G23">
         <v>1.000128074664341</v>
       </c>
-      <c r="G19">
+      <c r="H23">
         <v>1.000341535961878</v>
       </c>
-      <c r="H19">
+      <c r="I23">
         <v>0.9997182317698193</v>
       </c>
-      <c r="I19">
+      <c r="J23">
         <v>1.000128074664341</v>
       </c>
-      <c r="J19">
-        <v>0.9994876928119305</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.000128074664341</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.000128074664341</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9998078837381359</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9998078837381359</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9997779997486971</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.999914614046871</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.999914614046871</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999679792012386</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999679792012386</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999886140894421</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/O554F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW45.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000177562630677</v>
+        <v>1.001857319142648</v>
       </c>
       <c r="D3">
-        <v>0.9992897469496687</v>
+        <v>0.9925707285014431</v>
       </c>
       <c r="E3">
-        <v>0.9992897469496687</v>
+        <v>0.9925707285014431</v>
       </c>
       <c r="F3">
-        <v>1.000177562630677</v>
+        <v>1.001857319142648</v>
       </c>
       <c r="G3">
-        <v>1.000177562630677</v>
+        <v>1.001857319142648</v>
       </c>
       <c r="H3">
-        <v>1.000473500403536</v>
+        <v>1.004952843832855</v>
       </c>
       <c r="I3">
-        <v>0.999609359821213</v>
+        <v>0.9959138998414964</v>
       </c>
       <c r="J3">
-        <v>1.000177562630677</v>
+        <v>1.001857319142648</v>
       </c>
       <c r="K3">
-        <v>1.000177562630677</v>
+        <v>1.001857319142648</v>
       </c>
       <c r="L3">
-        <v>1.000177562630677</v>
+        <v>1.001857319142648</v>
       </c>
       <c r="M3">
-        <v>0.9997336547901727</v>
+        <v>0.9972140238220456</v>
       </c>
       <c r="N3">
-        <v>0.9997336547901727</v>
+        <v>0.9972140238220456</v>
       </c>
       <c r="O3">
-        <v>0.9996922231338529</v>
+        <v>0.9967806491618626</v>
       </c>
       <c r="P3">
-        <v>0.9998816240703409</v>
+        <v>0.998761788928913</v>
       </c>
       <c r="Q3">
-        <v>0.9998816240703409</v>
+        <v>0.998761788928913</v>
       </c>
       <c r="R3">
-        <v>0.9999556087104249</v>
+        <v>0.9995356714823468</v>
       </c>
       <c r="S3">
-        <v>0.9999556087104249</v>
+        <v>0.9995356714823468</v>
       </c>
       <c r="T3">
-        <v>0.9999842158444081</v>
+        <v>0.9998349049339564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000342783785597</v>
+        <v>1.001700139576964</v>
       </c>
       <c r="D4">
-        <v>0.9986288646218171</v>
+        <v>0.9931994445480785</v>
       </c>
       <c r="E4">
-        <v>0.9986288646218171</v>
+        <v>0.9931994445480785</v>
       </c>
       <c r="F4">
-        <v>1.000342783785597</v>
+        <v>1.001700139576964</v>
       </c>
       <c r="G4">
-        <v>1.000342783785597</v>
+        <v>1.001700139576964</v>
       </c>
       <c r="H4">
-        <v>1.00091408876045</v>
+        <v>1.00453370024599</v>
       </c>
       <c r="I4">
-        <v>0.9992458762923303</v>
+        <v>0.9962596935948584</v>
       </c>
       <c r="J4">
-        <v>1.000342783785597</v>
+        <v>1.001700139576964</v>
       </c>
       <c r="K4">
-        <v>1.000342783785597</v>
+        <v>1.001700139576964</v>
       </c>
       <c r="L4">
-        <v>1.000342783785597</v>
+        <v>1.001700139576964</v>
       </c>
       <c r="M4">
-        <v>0.9994858242037071</v>
+        <v>0.9974497920625213</v>
       </c>
       <c r="N4">
-        <v>0.9994858242037071</v>
+        <v>0.9974497920625213</v>
       </c>
       <c r="O4">
-        <v>0.9994058415665815</v>
+        <v>0.9970530925733003</v>
       </c>
       <c r="P4">
-        <v>0.9997714773976704</v>
+        <v>0.9988665745673355</v>
       </c>
       <c r="Q4">
-        <v>0.9997714773976704</v>
+        <v>0.9988665745673355</v>
       </c>
       <c r="R4">
-        <v>0.9999143039946521</v>
+        <v>0.9995749658197426</v>
       </c>
       <c r="S4">
-        <v>0.9999143039946521</v>
+        <v>0.9995749658197426</v>
       </c>
       <c r="T4">
-        <v>0.9999695301718982</v>
+        <v>0.9998488761866365</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000656904701122</v>
+        <v>1.002154235633422</v>
       </c>
       <c r="D5">
-        <v>0.9973723859713036</v>
+        <v>0.9913830692991925</v>
       </c>
       <c r="E5">
-        <v>0.9973723859713036</v>
+        <v>0.9913830692991925</v>
       </c>
       <c r="F5">
-        <v>1.000656904701122</v>
+        <v>1.002154235633422</v>
       </c>
       <c r="G5">
-        <v>1.000656904701122</v>
+        <v>1.002154235633422</v>
       </c>
       <c r="H5">
-        <v>1.001751740416642</v>
+        <v>1.005744615552561</v>
       </c>
       <c r="I5">
-        <v>0.9985548114011782</v>
+        <v>0.9952606856334235</v>
       </c>
       <c r="J5">
-        <v>1.000656904701122</v>
+        <v>1.002154235633422</v>
       </c>
       <c r="K5">
-        <v>1.000656904701122</v>
+        <v>1.002154235633422</v>
       </c>
       <c r="L5">
-        <v>1.000656904701122</v>
+        <v>1.002154235633422</v>
       </c>
       <c r="M5">
-        <v>0.9990146453362128</v>
+        <v>0.9967686524663074</v>
       </c>
       <c r="N5">
-        <v>0.9990146453362128</v>
+        <v>0.9967686524663074</v>
       </c>
       <c r="O5">
-        <v>0.9988613673578679</v>
+        <v>0.9962659968553461</v>
       </c>
       <c r="P5">
-        <v>0.9995620651245157</v>
+        <v>0.9985638468553457</v>
       </c>
       <c r="Q5">
-        <v>0.9995620651245157</v>
+        <v>0.9985638468553457</v>
       </c>
       <c r="R5">
-        <v>0.9998357750186673</v>
+        <v>0.9994614440498648</v>
       </c>
       <c r="S5">
-        <v>0.9998357750186673</v>
+        <v>0.9994614440498648</v>
       </c>
       <c r="T5">
-        <v>0.9999416086487484</v>
+        <v>0.999808512897574</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000963470611183</v>
+        <v>1.002429579488636</v>
       </c>
       <c r="D6">
-        <v>0.9961461324032457</v>
+        <v>0.9902817007386356</v>
       </c>
       <c r="E6">
-        <v>0.9961461324032457</v>
+        <v>0.9902817007386356</v>
       </c>
       <c r="F6">
-        <v>1.000963470611183</v>
+        <v>1.002429579488636</v>
       </c>
       <c r="G6">
-        <v>1.000963470611183</v>
+        <v>1.002429579488636</v>
       </c>
       <c r="H6">
-        <v>1.002569242737172</v>
+        <v>1.006478856704546</v>
       </c>
       <c r="I6">
-        <v>0.9978803745681247</v>
+        <v>0.9946549305681812</v>
       </c>
       <c r="J6">
-        <v>1.000963470611183</v>
+        <v>1.002429579488636</v>
       </c>
       <c r="K6">
-        <v>1.000963470611183</v>
+        <v>1.002429579488636</v>
       </c>
       <c r="L6">
-        <v>1.000963470611183</v>
+        <v>1.002429579488636</v>
       </c>
       <c r="M6">
-        <v>0.9985548015072141</v>
+        <v>0.996355640113636</v>
       </c>
       <c r="N6">
-        <v>0.9985548015072141</v>
+        <v>0.996355640113636</v>
       </c>
       <c r="O6">
-        <v>0.9983299925275176</v>
+        <v>0.9957887369318178</v>
       </c>
       <c r="P6">
-        <v>0.9993576912085369</v>
+        <v>0.9983802865719694</v>
       </c>
       <c r="Q6">
-        <v>0.9993576912085369</v>
+        <v>0.9983802865719694</v>
       </c>
       <c r="R6">
-        <v>0.9997591360591983</v>
+        <v>0.9993926098011362</v>
       </c>
       <c r="S6">
-        <v>0.9997591360591983</v>
+        <v>0.9993926098011362</v>
       </c>
       <c r="T6">
-        <v>0.999914360257015</v>
+        <v>0.9997840377462118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000012004429357</v>
+        <v>1.001097467814157</v>
       </c>
       <c r="D7">
-        <v>0.9999519783418052</v>
+        <v>0.9956101080080735</v>
       </c>
       <c r="E7">
-        <v>0.9999519783418052</v>
+        <v>0.9956101080080735</v>
       </c>
       <c r="F7">
-        <v>1.000012004429357</v>
+        <v>1.001097467814157</v>
       </c>
       <c r="G7">
-        <v>1.000012004429357</v>
+        <v>1.001097467814157</v>
       </c>
       <c r="H7">
-        <v>1.00003201275031</v>
+        <v>1.002926595790259</v>
       </c>
       <c r="I7">
-        <v>0.9999735870908832</v>
+        <v>0.9975855664665492</v>
       </c>
       <c r="J7">
-        <v>1.000012004429357</v>
+        <v>1.001097467814157</v>
       </c>
       <c r="K7">
-        <v>1.000012004429357</v>
+        <v>1.001097467814157</v>
       </c>
       <c r="L7">
-        <v>1.000012004429357</v>
+        <v>1.001097467814157</v>
       </c>
       <c r="M7">
-        <v>0.9999819913855811</v>
+        <v>0.9983537879111154</v>
       </c>
       <c r="N7">
-        <v>0.9999819913855811</v>
+        <v>0.9983537879111154</v>
       </c>
       <c r="O7">
-        <v>0.9999791899540152</v>
+        <v>0.9980977140962599</v>
       </c>
       <c r="P7">
-        <v>0.9999919957335064</v>
+        <v>0.9992683478787961</v>
       </c>
       <c r="Q7">
-        <v>0.9999919957335064</v>
+        <v>0.9992683478787961</v>
       </c>
       <c r="R7">
-        <v>0.999996997907469</v>
+        <v>0.9997256278626364</v>
       </c>
       <c r="S7">
-        <v>0.999996997907469</v>
+        <v>0.9997256278626364</v>
       </c>
       <c r="T7">
-        <v>0.9999989319118449</v>
+        <v>0.9999024456178921</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000029534586767</v>
+        <v>1.001129103163078</v>
       </c>
       <c r="D8">
-        <v>0.9998818566735191</v>
+        <v>0.9954835666924008</v>
       </c>
       <c r="E8">
-        <v>0.9998818566735191</v>
+        <v>0.9954835666924008</v>
       </c>
       <c r="F8">
-        <v>1.000029534586767</v>
+        <v>1.001129103163078</v>
       </c>
       <c r="G8">
-        <v>1.000029534586767</v>
+        <v>1.001129103163078</v>
       </c>
       <c r="H8">
-        <v>1.000078760347863</v>
+        <v>1.003010956646931</v>
       </c>
       <c r="I8">
-        <v>0.9999350202918704</v>
+        <v>0.9975159687679882</v>
       </c>
       <c r="J8">
-        <v>1.000029534586767</v>
+        <v>1.001129103163078</v>
       </c>
       <c r="K8">
-        <v>1.000029534586767</v>
+        <v>1.001129103163078</v>
       </c>
       <c r="L8">
-        <v>1.000029534586767</v>
+        <v>1.001129103163078</v>
       </c>
       <c r="M8">
-        <v>0.9999556956301432</v>
+        <v>0.9983063349277392</v>
       </c>
       <c r="N8">
-        <v>0.9999556956301432</v>
+        <v>0.9983063349277392</v>
       </c>
       <c r="O8">
-        <v>0.9999488038507188</v>
+        <v>0.9980428795411557</v>
       </c>
       <c r="P8">
-        <v>0.9999803086156845</v>
+        <v>0.9992472576728521</v>
       </c>
       <c r="Q8">
-        <v>0.9999803086156845</v>
+        <v>0.9992472576728521</v>
       </c>
       <c r="R8">
-        <v>0.9999926151084553</v>
+        <v>0.9997177190454085</v>
       </c>
       <c r="S8">
-        <v>0.9999926151084553</v>
+        <v>0.9997177190454085</v>
       </c>
       <c r="T8">
-        <v>0.999997373512259</v>
+        <v>0.9998996335994256</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000039562516712</v>
+        <v>1.001159900736841</v>
       </c>
       <c r="D9">
-        <v>0.9998417469650833</v>
+        <v>0.9953603769391649</v>
       </c>
       <c r="E9">
-        <v>0.9998417469650833</v>
+        <v>0.9953603769391649</v>
       </c>
       <c r="F9">
-        <v>1.000039562516712</v>
+        <v>1.001159900736841</v>
       </c>
       <c r="G9">
-        <v>1.000039562516712</v>
+        <v>1.001159900736841</v>
       </c>
       <c r="H9">
-        <v>1.000105500420685</v>
+        <v>1.003093083047706</v>
       </c>
       <c r="I9">
-        <v>0.9999129594989009</v>
+        <v>0.9974482143833577</v>
       </c>
       <c r="J9">
-        <v>1.000039562516712</v>
+        <v>1.001159900736841</v>
       </c>
       <c r="K9">
-        <v>1.000039562516712</v>
+        <v>1.001159900736841</v>
       </c>
       <c r="L9">
-        <v>1.000039562516712</v>
+        <v>1.001159900736841</v>
       </c>
       <c r="M9">
-        <v>0.9999406547408978</v>
+        <v>0.998260138838003</v>
       </c>
       <c r="N9">
-        <v>0.9999406547408978</v>
+        <v>0.998260138838003</v>
       </c>
       <c r="O9">
-        <v>0.9999314229935655</v>
+        <v>0.9979894973531213</v>
       </c>
       <c r="P9">
-        <v>0.9999736239995025</v>
+        <v>0.9992267261376157</v>
       </c>
       <c r="Q9">
-        <v>0.9999736239995025</v>
+        <v>0.9992267261376157</v>
       </c>
       <c r="R9">
-        <v>0.999990108628805</v>
+        <v>0.999710019787422</v>
       </c>
       <c r="S9">
-        <v>0.999990108628805</v>
+        <v>0.999710019787422</v>
       </c>
       <c r="T9">
-        <v>0.999996482405801</v>
+        <v>0.999896896096792</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000086938443669</v>
+        <v>1.001197944767376</v>
       </c>
       <c r="D10">
-        <v>0.999652246849473</v>
+        <v>0.9952082018229549</v>
       </c>
       <c r="E10">
-        <v>0.999652246849473</v>
+        <v>0.9952082018229549</v>
       </c>
       <c r="F10">
-        <v>1.000086938443669</v>
+        <v>1.001197944767376</v>
       </c>
       <c r="G10">
-        <v>1.000086938443669</v>
+        <v>1.001197944767376</v>
       </c>
       <c r="H10">
-        <v>1.000231834910702</v>
+        <v>1.003194532820363</v>
       </c>
       <c r="I10">
-        <v>0.9998087338358388</v>
+        <v>0.9973645182770124</v>
       </c>
       <c r="J10">
-        <v>1.000086938443669</v>
+        <v>1.001197944767376</v>
       </c>
       <c r="K10">
-        <v>1.000086938443669</v>
+        <v>1.001197944767376</v>
       </c>
       <c r="L10">
-        <v>1.000086938443669</v>
+        <v>1.001197944767376</v>
       </c>
       <c r="M10">
-        <v>0.9998695926465713</v>
+        <v>0.9982030732951656</v>
       </c>
       <c r="N10">
-        <v>0.9998695926465713</v>
+        <v>0.9982030732951656</v>
       </c>
       <c r="O10">
-        <v>0.9998493063763272</v>
+        <v>0.9979235549557811</v>
       </c>
       <c r="P10">
-        <v>0.999942041245604</v>
+        <v>0.9992013637859024</v>
       </c>
       <c r="Q10">
-        <v>0.999942041245604</v>
+        <v>0.9992013637859024</v>
       </c>
       <c r="R10">
-        <v>0.9999782655451204</v>
+        <v>0.9997005090312708</v>
       </c>
       <c r="S10">
-        <v>0.9999782655451204</v>
+        <v>0.9997005090312708</v>
       </c>
       <c r="T10">
-        <v>0.9999922718211703</v>
+        <v>0.9998935145370765</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000140070328065</v>
+        <v>1.000194353510354</v>
       </c>
       <c r="D11">
-        <v>0.9994397158783804</v>
+        <v>0.999222583875949</v>
       </c>
       <c r="E11">
-        <v>0.9994397158783804</v>
+        <v>0.999222583875949</v>
       </c>
       <c r="F11">
-        <v>1.000140070328065</v>
+        <v>1.000194353510354</v>
       </c>
       <c r="G11">
-        <v>1.000140070328065</v>
+        <v>1.000194353510354</v>
       </c>
       <c r="H11">
-        <v>1.000373519985333</v>
+        <v>1.000518275651999</v>
       </c>
       <c r="I11">
-        <v>0.9996918427100602</v>
+        <v>0.999572420773546</v>
       </c>
       <c r="J11">
-        <v>1.000140070328065</v>
+        <v>1.000194353510354</v>
       </c>
       <c r="K11">
-        <v>1.000140070328065</v>
+        <v>1.000194353510354</v>
       </c>
       <c r="L11">
-        <v>1.000140070328065</v>
+        <v>1.000194353510354</v>
       </c>
       <c r="M11">
-        <v>0.9997898931032225</v>
+        <v>0.9997084686931516</v>
       </c>
       <c r="N11">
-        <v>0.9997898931032225</v>
+        <v>0.9997084686931516</v>
       </c>
       <c r="O11">
-        <v>0.9997572096388351</v>
+        <v>0.9996631193866164</v>
       </c>
       <c r="P11">
-        <v>0.9999066188448366</v>
+        <v>0.9998704302988858</v>
       </c>
       <c r="Q11">
-        <v>0.9999066188448366</v>
+        <v>0.9998704302988858</v>
       </c>
       <c r="R11">
-        <v>0.9999649817156435</v>
+        <v>0.9999514111017529</v>
       </c>
       <c r="S11">
-        <v>0.9999649817156435</v>
+        <v>0.9999514111017529</v>
       </c>
       <c r="T11">
-        <v>0.9999875482596612</v>
+        <v>0.9999827234720927</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9987391737253933</v>
+        <v>1.000091227222095</v>
       </c>
       <c r="D12">
-        <v>1.005043288796453</v>
+        <v>0.9996350877016776</v>
       </c>
       <c r="E12">
-        <v>1.005043288796453</v>
+        <v>0.9996350877016776</v>
       </c>
       <c r="F12">
-        <v>0.9987391737253933</v>
+        <v>1.000091227222095</v>
       </c>
       <c r="G12">
-        <v>0.9987391737253933</v>
+        <v>1.000091227222095</v>
       </c>
       <c r="H12">
-        <v>0.9966378058231855</v>
+        <v>1.000243273139967</v>
       </c>
       <c r="I12">
-        <v>1.002773808974117</v>
+        <v>0.9997992973975537</v>
       </c>
       <c r="J12">
-        <v>0.9987391737253933</v>
+        <v>1.000091227222095</v>
       </c>
       <c r="K12">
-        <v>0.9987391737253933</v>
+        <v>1.000091227222095</v>
       </c>
       <c r="L12">
-        <v>0.9987391737253933</v>
+        <v>1.000091227222095</v>
       </c>
       <c r="M12">
-        <v>1.001891231260923</v>
+        <v>0.9998631574618866</v>
       </c>
       <c r="N12">
-        <v>1.001891231260923</v>
+        <v>0.9998631574618866</v>
       </c>
       <c r="O12">
-        <v>1.002185423831988</v>
+        <v>0.9998418707737756</v>
       </c>
       <c r="P12">
-        <v>1.000840545415747</v>
+        <v>0.9999391807152896</v>
       </c>
       <c r="Q12">
-        <v>1.000840545415747</v>
+        <v>0.9999391807152896</v>
       </c>
       <c r="R12">
-        <v>1.000315202493158</v>
+        <v>0.9999771923419911</v>
       </c>
       <c r="S12">
-        <v>1.000315202493158</v>
+        <v>0.9999771923419911</v>
       </c>
       <c r="T12">
-        <v>1.000112070794989</v>
+        <v>0.9999918899842476</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996748642246595</v>
+        <v>1.000294223631221</v>
       </c>
       <c r="D13">
-        <v>1.001300539080104</v>
+        <v>0.9988231076447736</v>
       </c>
       <c r="E13">
-        <v>1.001300539080104</v>
+        <v>0.9988231076447736</v>
       </c>
       <c r="F13">
-        <v>0.9996748642246595</v>
+        <v>1.000294223631221</v>
       </c>
       <c r="G13">
-        <v>0.9996748642246595</v>
+        <v>1.000294223631221</v>
       </c>
       <c r="H13">
-        <v>0.9991329731329355</v>
+        <v>1.000784594600707</v>
       </c>
       <c r="I13">
-        <v>1.000715292336611</v>
+        <v>0.9993527108912221</v>
       </c>
       <c r="J13">
-        <v>0.9996748642246595</v>
+        <v>1.000294223631221</v>
       </c>
       <c r="K13">
-        <v>0.9996748642246595</v>
+        <v>1.000294223631221</v>
       </c>
       <c r="L13">
-        <v>0.9996748642246595</v>
+        <v>1.000294223631221</v>
       </c>
       <c r="M13">
-        <v>1.000487701652382</v>
+        <v>0.9995586656379974</v>
       </c>
       <c r="N13">
-        <v>1.000487701652382</v>
+        <v>0.9995586656379974</v>
       </c>
       <c r="O13">
-        <v>1.000563565213792</v>
+        <v>0.999490014055739</v>
       </c>
       <c r="P13">
-        <v>1.000216755843141</v>
+        <v>0.9998038516357388</v>
       </c>
       <c r="Q13">
-        <v>1.000216755843141</v>
+        <v>0.9998038516357388</v>
       </c>
       <c r="R13">
-        <v>1.000081282938521</v>
+        <v>0.9999264446346094</v>
       </c>
       <c r="S13">
-        <v>1.000081282938521</v>
+        <v>0.9999264446346094</v>
       </c>
       <c r="T13">
-        <v>1.000028899537271</v>
+        <v>0.9999738473383945</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9962934937700573</v>
+        <v>1.000494802345107</v>
       </c>
       <c r="D14">
-        <v>1.014826042801522</v>
+        <v>0.9980207890304169</v>
       </c>
       <c r="E14">
-        <v>1.014826042801522</v>
+        <v>0.9980207890304169</v>
       </c>
       <c r="F14">
-        <v>0.9962934937700573</v>
+        <v>1.000494802345107</v>
       </c>
       <c r="G14">
-        <v>0.9962934937700573</v>
+        <v>1.000494802345107</v>
       </c>
       <c r="H14">
-        <v>0.9901159739531828</v>
+        <v>1.001319469493479</v>
       </c>
       <c r="I14">
-        <v>1.008154316900208</v>
+        <v>0.9989114301959606</v>
       </c>
       <c r="J14">
-        <v>0.9962934937700573</v>
+        <v>1.000494802345107</v>
       </c>
       <c r="K14">
-        <v>0.9962934937700573</v>
+        <v>1.000494802345107</v>
       </c>
       <c r="L14">
-        <v>0.9962934937700573</v>
+        <v>1.000494802345107</v>
       </c>
       <c r="M14">
-        <v>1.00555976828579</v>
+        <v>0.9992577956877622</v>
       </c>
       <c r="N14">
-        <v>1.00555976828579</v>
+        <v>0.9992577956877622</v>
       </c>
       <c r="O14">
-        <v>1.006424617823929</v>
+        <v>0.9991423405238283</v>
       </c>
       <c r="P14">
-        <v>1.002471010113879</v>
+        <v>0.9996701312402106</v>
       </c>
       <c r="Q14">
-        <v>1.002471010113879</v>
+        <v>0.9996701312402106</v>
       </c>
       <c r="R14">
-        <v>1.000926631027923</v>
+        <v>0.9998762990164348</v>
       </c>
       <c r="S14">
-        <v>1.000926631027923</v>
+        <v>0.9998762990164348</v>
       </c>
       <c r="T14">
-        <v>1.000329469160848</v>
+        <v>0.9999560159591966</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9990232498566435</v>
+        <v>1.000177562630677</v>
       </c>
       <c r="D15">
-        <v>1.003907008956704</v>
+        <v>0.9992897469496687</v>
       </c>
       <c r="E15">
-        <v>1.003907008956704</v>
+        <v>0.9992897469496687</v>
       </c>
       <c r="F15">
-        <v>0.9990232498566435</v>
+        <v>1.000177562630677</v>
       </c>
       <c r="G15">
-        <v>0.9990232498566435</v>
+        <v>1.000177562630677</v>
       </c>
       <c r="H15">
-        <v>0.9973953295656443</v>
+        <v>1.000473500403536</v>
       </c>
       <c r="I15">
-        <v>1.002148852977154</v>
+        <v>0.999609359821213</v>
       </c>
       <c r="J15">
-        <v>0.9990232498566435</v>
+        <v>1.000177562630677</v>
       </c>
       <c r="K15">
-        <v>0.9990232498566435</v>
+        <v>1.000177562630677</v>
       </c>
       <c r="L15">
-        <v>0.9990232498566435</v>
+        <v>1.000177562630677</v>
       </c>
       <c r="M15">
-        <v>1.001465129406674</v>
+        <v>0.9997336547901727</v>
       </c>
       <c r="N15">
-        <v>1.001465129406674</v>
+        <v>0.9997336547901727</v>
       </c>
       <c r="O15">
-        <v>1.0016930372635</v>
+        <v>0.9996922231338529</v>
       </c>
       <c r="P15">
-        <v>1.000651169556664</v>
+        <v>0.9998816240703409</v>
       </c>
       <c r="Q15">
-        <v>1.000651169556664</v>
+        <v>0.9998816240703409</v>
       </c>
       <c r="R15">
-        <v>1.000244189631659</v>
+        <v>0.9999556087104249</v>
       </c>
       <c r="S15">
-        <v>1.000244189631659</v>
+        <v>0.9999556087104249</v>
       </c>
       <c r="T15">
-        <v>1.000086823511572</v>
+        <v>0.9999842158444081</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.003462999059081</v>
+        <v>1.000342783785597</v>
       </c>
       <c r="D16">
-        <v>0.9861480254336547</v>
+        <v>0.9986288646218171</v>
       </c>
       <c r="E16">
-        <v>0.9861480254336547</v>
+        <v>0.9986288646218171</v>
       </c>
       <c r="F16">
-        <v>1.003462999059081</v>
+        <v>1.000342783785597</v>
       </c>
       <c r="G16">
-        <v>1.003462999059081</v>
+        <v>1.000342783785597</v>
       </c>
       <c r="H16">
-        <v>1.009234643129855</v>
+        <v>1.00091408876045</v>
       </c>
       <c r="I16">
-        <v>0.9923814151561814</v>
+        <v>0.9992458762923303</v>
       </c>
       <c r="J16">
-        <v>1.003462999059081</v>
+        <v>1.000342783785597</v>
       </c>
       <c r="K16">
-        <v>1.003462999059081</v>
+        <v>1.000342783785597</v>
       </c>
       <c r="L16">
-        <v>1.003462999059081</v>
+        <v>1.000342783785597</v>
       </c>
       <c r="M16">
-        <v>0.9948055122463679</v>
+        <v>0.9994858242037071</v>
       </c>
       <c r="N16">
-        <v>0.9948055122463679</v>
+        <v>0.9994858242037071</v>
       </c>
       <c r="O16">
-        <v>0.9939974798829724</v>
+        <v>0.9994058415665815</v>
       </c>
       <c r="P16">
-        <v>0.9976913411839391</v>
+        <v>0.9997714773976704</v>
       </c>
       <c r="Q16">
-        <v>0.9976913411839391</v>
+        <v>0.9997714773976704</v>
       </c>
       <c r="R16">
-        <v>0.9991342556527247</v>
+        <v>0.9999143039946521</v>
       </c>
       <c r="S16">
-        <v>0.9991342556527247</v>
+        <v>0.9999143039946521</v>
       </c>
       <c r="T16">
-        <v>0.9996921801494891</v>
+        <v>0.9999695301718982</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.002832490301434</v>
+        <v>1.000656904701122</v>
       </c>
       <c r="D17">
-        <v>0.9886700535999944</v>
+        <v>0.9973723859713036</v>
       </c>
       <c r="E17">
-        <v>0.9886700535999944</v>
+        <v>0.9973723859713036</v>
       </c>
       <c r="F17">
-        <v>1.002832490301434</v>
+        <v>1.000656904701122</v>
       </c>
       <c r="G17">
-        <v>1.002832490301434</v>
+        <v>1.000656904701122</v>
       </c>
       <c r="H17">
-        <v>1.007553292197111</v>
+        <v>1.001751740416642</v>
       </c>
       <c r="I17">
-        <v>0.993768529945709</v>
+        <v>0.9985548114011782</v>
       </c>
       <c r="J17">
-        <v>1.002832490301434</v>
+        <v>1.000656904701122</v>
       </c>
       <c r="K17">
-        <v>1.002832490301434</v>
+        <v>1.000656904701122</v>
       </c>
       <c r="L17">
-        <v>1.002832490301434</v>
+        <v>1.000656904701122</v>
       </c>
       <c r="M17">
-        <v>0.995751271950714</v>
+        <v>0.9990146453362128</v>
       </c>
       <c r="N17">
-        <v>0.995751271950714</v>
+        <v>0.9990146453362128</v>
       </c>
       <c r="O17">
-        <v>0.9950903579490457</v>
+        <v>0.9988613673578679</v>
       </c>
       <c r="P17">
-        <v>0.9981116780676205</v>
+        <v>0.9995620651245157</v>
       </c>
       <c r="Q17">
-        <v>0.9981116780676205</v>
+        <v>0.9995620651245157</v>
       </c>
       <c r="R17">
-        <v>0.9992918811260738</v>
+        <v>0.9998357750186673</v>
       </c>
       <c r="S17">
-        <v>0.9992918811260738</v>
+        <v>0.9998357750186673</v>
       </c>
       <c r="T17">
-        <v>0.9997482244411858</v>
+        <v>0.9999416086487484</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001562246108191</v>
+        <v>1.000963470611183</v>
       </c>
       <c r="D18">
-        <v>0.993751023160257</v>
+        <v>0.9961461324032457</v>
       </c>
       <c r="E18">
-        <v>0.993751023160257</v>
+        <v>0.9961461324032457</v>
       </c>
       <c r="F18">
-        <v>1.001562246108191</v>
+        <v>1.000963470611183</v>
       </c>
       <c r="G18">
-        <v>1.001562246108191</v>
+        <v>1.000963470611183</v>
       </c>
       <c r="H18">
-        <v>1.004165983401715</v>
+        <v>1.002569242737172</v>
       </c>
       <c r="I18">
-        <v>0.9965630597397052</v>
+        <v>0.9978803745681247</v>
       </c>
       <c r="J18">
-        <v>1.001562246108191</v>
+        <v>1.000963470611183</v>
       </c>
       <c r="K18">
-        <v>1.001562246108191</v>
+        <v>1.000963470611183</v>
       </c>
       <c r="L18">
-        <v>1.001562246108191</v>
+        <v>1.000963470611183</v>
       </c>
       <c r="M18">
-        <v>0.9976566346342242</v>
+        <v>0.9985548015072141</v>
       </c>
       <c r="N18">
-        <v>0.9976566346342242</v>
+        <v>0.9985548015072141</v>
       </c>
       <c r="O18">
-        <v>0.9972921096693845</v>
+        <v>0.9983299925275176</v>
       </c>
       <c r="P18">
-        <v>0.9989585051255464</v>
+        <v>0.9993576912085369</v>
       </c>
       <c r="Q18">
-        <v>0.9989585051255464</v>
+        <v>0.9993576912085369</v>
       </c>
       <c r="R18">
-        <v>0.9996094403712077</v>
+        <v>0.9997591360591983</v>
       </c>
       <c r="S18">
-        <v>0.9996094403712077</v>
+        <v>0.9997591360591983</v>
       </c>
       <c r="T18">
-        <v>0.9998611341043753</v>
+        <v>0.999914360257015</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001712299137719</v>
+        <v>1.000012004429357</v>
       </c>
       <c r="D19">
-        <v>0.9931507994591321</v>
+        <v>0.9999519783418052</v>
       </c>
       <c r="E19">
-        <v>0.9931507994591321</v>
+        <v>0.9999519783418052</v>
       </c>
       <c r="F19">
-        <v>1.001712299137719</v>
+        <v>1.000012004429357</v>
       </c>
       <c r="G19">
-        <v>1.001712299137719</v>
+        <v>1.000012004429357</v>
       </c>
       <c r="H19">
-        <v>1.00456612981508</v>
+        <v>1.00003201275031</v>
       </c>
       <c r="I19">
-        <v>0.9962329364411734</v>
+        <v>0.9999735870908832</v>
       </c>
       <c r="J19">
-        <v>1.001712299137719</v>
+        <v>1.000012004429357</v>
       </c>
       <c r="K19">
-        <v>1.001712299137719</v>
+        <v>1.000012004429357</v>
       </c>
       <c r="L19">
-        <v>1.001712299137719</v>
+        <v>1.000012004429357</v>
       </c>
       <c r="M19">
-        <v>0.9974315492984256</v>
+        <v>0.9999819913855811</v>
       </c>
       <c r="N19">
-        <v>0.9974315492984256</v>
+        <v>0.9999819913855811</v>
       </c>
       <c r="O19">
-        <v>0.9970320116793415</v>
+        <v>0.9999791899540152</v>
       </c>
       <c r="P19">
-        <v>0.9988584659115235</v>
+        <v>0.9999919957335064</v>
       </c>
       <c r="Q19">
-        <v>0.9988584659115235</v>
+        <v>0.9999919957335064</v>
       </c>
       <c r="R19">
-        <v>0.9995719242180725</v>
+        <v>0.999996997907469</v>
       </c>
       <c r="S19">
-        <v>0.9995719242180725</v>
+        <v>0.999996997907469</v>
       </c>
       <c r="T19">
-        <v>0.9998477938547571</v>
+        <v>0.9999989319118449</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000000732121002</v>
+        <v>1.000029534586767</v>
       </c>
       <c r="D20">
-        <v>0.99999706731769</v>
+        <v>0.9998818566735191</v>
       </c>
       <c r="E20">
-        <v>0.99999706731769</v>
+        <v>0.9998818566735191</v>
       </c>
       <c r="F20">
-        <v>1.000000732121002</v>
+        <v>1.000029534586767</v>
       </c>
       <c r="G20">
-        <v>1.000000732121002</v>
+        <v>1.000029534586767</v>
       </c>
       <c r="H20">
-        <v>1.000001953660895</v>
+        <v>1.000078760347863</v>
       </c>
       <c r="I20">
-        <v>0.9999983859828933</v>
+        <v>0.9999350202918704</v>
       </c>
       <c r="J20">
-        <v>1.000000732121002</v>
+        <v>1.000029534586767</v>
       </c>
       <c r="K20">
-        <v>1.000000732121002</v>
+        <v>1.000029534586767</v>
       </c>
       <c r="L20">
-        <v>1.000000732121002</v>
+        <v>1.000029534586767</v>
       </c>
       <c r="M20">
-        <v>0.9999988997193459</v>
+        <v>0.9999556956301432</v>
       </c>
       <c r="N20">
-        <v>0.9999988997193459</v>
+        <v>0.9999556956301432</v>
       </c>
       <c r="O20">
-        <v>0.9999987284738617</v>
+        <v>0.9999488038507188</v>
       </c>
       <c r="P20">
-        <v>0.9999995105198979</v>
+        <v>0.9999803086156845</v>
       </c>
       <c r="Q20">
-        <v>0.9999995105198979</v>
+        <v>0.9999803086156845</v>
       </c>
       <c r="R20">
-        <v>0.999999815920174</v>
+        <v>0.9999926151084553</v>
       </c>
       <c r="S20">
-        <v>0.999999815920174</v>
+        <v>0.9999926151084553</v>
       </c>
       <c r="T20">
-        <v>0.999999933887414</v>
+        <v>0.999997373512259</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000015527383392</v>
+        <v>1.000039562516712</v>
       </c>
       <c r="D21">
-        <v>0.9999378873894239</v>
+        <v>0.9998417469650833</v>
       </c>
       <c r="E21">
-        <v>0.9999378873894239</v>
+        <v>0.9998417469650833</v>
       </c>
       <c r="F21">
-        <v>1.000015527383392</v>
+        <v>1.000039562516712</v>
       </c>
       <c r="G21">
-        <v>1.000015527383392</v>
+        <v>1.000039562516712</v>
       </c>
       <c r="H21">
-        <v>1.000041406958194</v>
+        <v>1.000105500420685</v>
       </c>
       <c r="I21">
-        <v>0.9999658369646389</v>
+        <v>0.9999129594989009</v>
       </c>
       <c r="J21">
-        <v>1.000015527383392</v>
+        <v>1.000039562516712</v>
       </c>
       <c r="K21">
-        <v>1.000015527383392</v>
+        <v>1.000039562516712</v>
       </c>
       <c r="L21">
-        <v>1.000015527383392</v>
+        <v>1.000039562516712</v>
       </c>
       <c r="M21">
-        <v>0.9999767073864076</v>
+        <v>0.9999406547408978</v>
       </c>
       <c r="N21">
-        <v>0.9999767073864076</v>
+        <v>0.9999406547408978</v>
       </c>
       <c r="O21">
-        <v>0.9999730839124847</v>
+        <v>0.9999314229935655</v>
       </c>
       <c r="P21">
-        <v>0.9999896473854023</v>
+        <v>0.9999736239995025</v>
       </c>
       <c r="Q21">
-        <v>0.9999896473854023</v>
+        <v>0.9999736239995025</v>
       </c>
       <c r="R21">
-        <v>0.9999961173848996</v>
+        <v>0.999990108628805</v>
       </c>
       <c r="S21">
-        <v>0.9999961173848996</v>
+        <v>0.999990108628805</v>
       </c>
       <c r="T21">
-        <v>0.9999986189104052</v>
+        <v>0.999996482405801</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000054672108268</v>
+        <v>1.000086938443669</v>
       </c>
       <c r="D22">
-        <v>0.9997813198505049</v>
+        <v>0.999652246849473</v>
       </c>
       <c r="E22">
-        <v>0.9997813198505049</v>
+        <v>0.999652246849473</v>
       </c>
       <c r="F22">
-        <v>1.000054672108268</v>
+        <v>1.000086938443669</v>
       </c>
       <c r="G22">
-        <v>1.000054672108268</v>
+        <v>1.000086938443669</v>
       </c>
       <c r="H22">
-        <v>1.000145785037504</v>
+        <v>1.000231834910702</v>
       </c>
       <c r="I22">
-        <v>0.9998797233996437</v>
+        <v>0.9998087338358388</v>
       </c>
       <c r="J22">
-        <v>1.000054672108268</v>
+        <v>1.000086938443669</v>
       </c>
       <c r="K22">
-        <v>1.000054672108268</v>
+        <v>1.000086938443669</v>
       </c>
       <c r="L22">
-        <v>1.000054672108268</v>
+        <v>1.000086938443669</v>
       </c>
       <c r="M22">
-        <v>0.9999179959793867</v>
+        <v>0.9998695926465713</v>
       </c>
       <c r="N22">
-        <v>0.9999179959793867</v>
+        <v>0.9998695926465713</v>
       </c>
       <c r="O22">
-        <v>0.9999052384528057</v>
+        <v>0.9998493063763272</v>
       </c>
       <c r="P22">
-        <v>0.999963554689014</v>
+        <v>0.999942041245604</v>
       </c>
       <c r="Q22">
-        <v>0.999963554689014</v>
+        <v>0.999942041245604</v>
       </c>
       <c r="R22">
-        <v>0.9999863340438275</v>
+        <v>0.9999782655451204</v>
       </c>
       <c r="S22">
-        <v>0.9999863340438275</v>
+        <v>0.9999782655451204</v>
       </c>
       <c r="T22">
-        <v>0.9999951407687431</v>
+        <v>0.9999922718211703</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000140070328065</v>
+      </c>
+      <c r="D23">
+        <v>0.9994397158783804</v>
+      </c>
+      <c r="E23">
+        <v>0.9994397158783804</v>
+      </c>
+      <c r="F23">
+        <v>1.000140070328065</v>
+      </c>
+      <c r="G23">
+        <v>1.000140070328065</v>
+      </c>
+      <c r="H23">
+        <v>1.000373519985333</v>
+      </c>
+      <c r="I23">
+        <v>0.9996918427100602</v>
+      </c>
+      <c r="J23">
+        <v>1.000140070328065</v>
+      </c>
+      <c r="K23">
+        <v>1.000140070328065</v>
+      </c>
+      <c r="L23">
+        <v>1.000140070328065</v>
+      </c>
+      <c r="M23">
+        <v>0.9997898931032225</v>
+      </c>
+      <c r="N23">
+        <v>0.9997898931032225</v>
+      </c>
+      <c r="O23">
+        <v>0.9997572096388351</v>
+      </c>
+      <c r="P23">
+        <v>0.9999066188448366</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999066188448366</v>
+      </c>
+      <c r="R23">
+        <v>0.9999649817156435</v>
+      </c>
+      <c r="S23">
+        <v>0.9999649817156435</v>
+      </c>
+      <c r="T23">
+        <v>0.9999875482596612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9987391737253933</v>
+      </c>
+      <c r="D24">
+        <v>1.005043288796453</v>
+      </c>
+      <c r="E24">
+        <v>1.005043288796453</v>
+      </c>
+      <c r="F24">
+        <v>0.9987391737253933</v>
+      </c>
+      <c r="G24">
+        <v>0.9987391737253933</v>
+      </c>
+      <c r="H24">
+        <v>0.9966378058231855</v>
+      </c>
+      <c r="I24">
+        <v>1.002773808974117</v>
+      </c>
+      <c r="J24">
+        <v>0.9987391737253933</v>
+      </c>
+      <c r="K24">
+        <v>0.9987391737253933</v>
+      </c>
+      <c r="L24">
+        <v>0.9987391737253933</v>
+      </c>
+      <c r="M24">
+        <v>1.001891231260923</v>
+      </c>
+      <c r="N24">
+        <v>1.001891231260923</v>
+      </c>
+      <c r="O24">
+        <v>1.002185423831988</v>
+      </c>
+      <c r="P24">
+        <v>1.000840545415747</v>
+      </c>
+      <c r="Q24">
+        <v>1.000840545415747</v>
+      </c>
+      <c r="R24">
+        <v>1.000315202493158</v>
+      </c>
+      <c r="S24">
+        <v>1.000315202493158</v>
+      </c>
+      <c r="T24">
+        <v>1.000112070794989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9996748642246595</v>
+      </c>
+      <c r="D25">
+        <v>1.001300539080104</v>
+      </c>
+      <c r="E25">
+        <v>1.001300539080104</v>
+      </c>
+      <c r="F25">
+        <v>0.9996748642246595</v>
+      </c>
+      <c r="G25">
+        <v>0.9996748642246595</v>
+      </c>
+      <c r="H25">
+        <v>0.9991329731329355</v>
+      </c>
+      <c r="I25">
+        <v>1.000715292336611</v>
+      </c>
+      <c r="J25">
+        <v>0.9996748642246595</v>
+      </c>
+      <c r="K25">
+        <v>0.9996748642246595</v>
+      </c>
+      <c r="L25">
+        <v>0.9996748642246595</v>
+      </c>
+      <c r="M25">
+        <v>1.000487701652382</v>
+      </c>
+      <c r="N25">
+        <v>1.000487701652382</v>
+      </c>
+      <c r="O25">
+        <v>1.000563565213792</v>
+      </c>
+      <c r="P25">
+        <v>1.000216755843141</v>
+      </c>
+      <c r="Q25">
+        <v>1.000216755843141</v>
+      </c>
+      <c r="R25">
+        <v>1.000081282938521</v>
+      </c>
+      <c r="S25">
+        <v>1.000081282938521</v>
+      </c>
+      <c r="T25">
+        <v>1.000028899537271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9962934937700573</v>
+      </c>
+      <c r="D26">
+        <v>1.014826042801522</v>
+      </c>
+      <c r="E26">
+        <v>1.014826042801522</v>
+      </c>
+      <c r="F26">
+        <v>0.9962934937700573</v>
+      </c>
+      <c r="G26">
+        <v>0.9962934937700573</v>
+      </c>
+      <c r="H26">
+        <v>0.9901159739531828</v>
+      </c>
+      <c r="I26">
+        <v>1.008154316900208</v>
+      </c>
+      <c r="J26">
+        <v>0.9962934937700573</v>
+      </c>
+      <c r="K26">
+        <v>0.9962934937700573</v>
+      </c>
+      <c r="L26">
+        <v>0.9962934937700573</v>
+      </c>
+      <c r="M26">
+        <v>1.00555976828579</v>
+      </c>
+      <c r="N26">
+        <v>1.00555976828579</v>
+      </c>
+      <c r="O26">
+        <v>1.006424617823929</v>
+      </c>
+      <c r="P26">
+        <v>1.002471010113879</v>
+      </c>
+      <c r="Q26">
+        <v>1.002471010113879</v>
+      </c>
+      <c r="R26">
+        <v>1.000926631027923</v>
+      </c>
+      <c r="S26">
+        <v>1.000926631027923</v>
+      </c>
+      <c r="T26">
+        <v>1.000329469160848</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9990232498566435</v>
+      </c>
+      <c r="D27">
+        <v>1.003907008956704</v>
+      </c>
+      <c r="E27">
+        <v>1.003907008956704</v>
+      </c>
+      <c r="F27">
+        <v>0.9990232498566435</v>
+      </c>
+      <c r="G27">
+        <v>0.9990232498566435</v>
+      </c>
+      <c r="H27">
+        <v>0.9973953295656443</v>
+      </c>
+      <c r="I27">
+        <v>1.002148852977154</v>
+      </c>
+      <c r="J27">
+        <v>0.9990232498566435</v>
+      </c>
+      <c r="K27">
+        <v>0.9990232498566435</v>
+      </c>
+      <c r="L27">
+        <v>0.9990232498566435</v>
+      </c>
+      <c r="M27">
+        <v>1.001465129406674</v>
+      </c>
+      <c r="N27">
+        <v>1.001465129406674</v>
+      </c>
+      <c r="O27">
+        <v>1.0016930372635</v>
+      </c>
+      <c r="P27">
+        <v>1.000651169556664</v>
+      </c>
+      <c r="Q27">
+        <v>1.000651169556664</v>
+      </c>
+      <c r="R27">
+        <v>1.000244189631659</v>
+      </c>
+      <c r="S27">
+        <v>1.000244189631659</v>
+      </c>
+      <c r="T27">
+        <v>1.000086823511572</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.003462999059081</v>
+      </c>
+      <c r="D28">
+        <v>0.9861480254336547</v>
+      </c>
+      <c r="E28">
+        <v>0.9861480254336547</v>
+      </c>
+      <c r="F28">
+        <v>1.003462999059081</v>
+      </c>
+      <c r="G28">
+        <v>1.003462999059081</v>
+      </c>
+      <c r="H28">
+        <v>1.009234643129855</v>
+      </c>
+      <c r="I28">
+        <v>0.9923814151561814</v>
+      </c>
+      <c r="J28">
+        <v>1.003462999059081</v>
+      </c>
+      <c r="K28">
+        <v>1.003462999059081</v>
+      </c>
+      <c r="L28">
+        <v>1.003462999059081</v>
+      </c>
+      <c r="M28">
+        <v>0.9948055122463679</v>
+      </c>
+      <c r="N28">
+        <v>0.9948055122463679</v>
+      </c>
+      <c r="O28">
+        <v>0.9939974798829724</v>
+      </c>
+      <c r="P28">
+        <v>0.9976913411839391</v>
+      </c>
+      <c r="Q28">
+        <v>0.9976913411839391</v>
+      </c>
+      <c r="R28">
+        <v>0.9991342556527247</v>
+      </c>
+      <c r="S28">
+        <v>0.9991342556527247</v>
+      </c>
+      <c r="T28">
+        <v>0.9996921801494891</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.002832490301434</v>
+      </c>
+      <c r="D29">
+        <v>0.9886700535999944</v>
+      </c>
+      <c r="E29">
+        <v>0.9886700535999944</v>
+      </c>
+      <c r="F29">
+        <v>1.002832490301434</v>
+      </c>
+      <c r="G29">
+        <v>1.002832490301434</v>
+      </c>
+      <c r="H29">
+        <v>1.007553292197111</v>
+      </c>
+      <c r="I29">
+        <v>0.993768529945709</v>
+      </c>
+      <c r="J29">
+        <v>1.002832490301434</v>
+      </c>
+      <c r="K29">
+        <v>1.002832490301434</v>
+      </c>
+      <c r="L29">
+        <v>1.002832490301434</v>
+      </c>
+      <c r="M29">
+        <v>0.995751271950714</v>
+      </c>
+      <c r="N29">
+        <v>0.995751271950714</v>
+      </c>
+      <c r="O29">
+        <v>0.9950903579490457</v>
+      </c>
+      <c r="P29">
+        <v>0.9981116780676205</v>
+      </c>
+      <c r="Q29">
+        <v>0.9981116780676205</v>
+      </c>
+      <c r="R29">
+        <v>0.9992918811260738</v>
+      </c>
+      <c r="S29">
+        <v>0.9992918811260738</v>
+      </c>
+      <c r="T29">
+        <v>0.9997482244411858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.001562246108191</v>
+      </c>
+      <c r="D30">
+        <v>0.993751023160257</v>
+      </c>
+      <c r="E30">
+        <v>0.993751023160257</v>
+      </c>
+      <c r="F30">
+        <v>1.001562246108191</v>
+      </c>
+      <c r="G30">
+        <v>1.001562246108191</v>
+      </c>
+      <c r="H30">
+        <v>1.004165983401715</v>
+      </c>
+      <c r="I30">
+        <v>0.9965630597397052</v>
+      </c>
+      <c r="J30">
+        <v>1.001562246108191</v>
+      </c>
+      <c r="K30">
+        <v>1.001562246108191</v>
+      </c>
+      <c r="L30">
+        <v>1.001562246108191</v>
+      </c>
+      <c r="M30">
+        <v>0.9976566346342242</v>
+      </c>
+      <c r="N30">
+        <v>0.9976566346342242</v>
+      </c>
+      <c r="O30">
+        <v>0.9972921096693845</v>
+      </c>
+      <c r="P30">
+        <v>0.9989585051255464</v>
+      </c>
+      <c r="Q30">
+        <v>0.9989585051255464</v>
+      </c>
+      <c r="R30">
+        <v>0.9996094403712077</v>
+      </c>
+      <c r="S30">
+        <v>0.9996094403712077</v>
+      </c>
+      <c r="T30">
+        <v>0.9998611341043753</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.001712299137719</v>
+      </c>
+      <c r="D31">
+        <v>0.9931507994591321</v>
+      </c>
+      <c r="E31">
+        <v>0.9931507994591321</v>
+      </c>
+      <c r="F31">
+        <v>1.001712299137719</v>
+      </c>
+      <c r="G31">
+        <v>1.001712299137719</v>
+      </c>
+      <c r="H31">
+        <v>1.00456612981508</v>
+      </c>
+      <c r="I31">
+        <v>0.9962329364411734</v>
+      </c>
+      <c r="J31">
+        <v>1.001712299137719</v>
+      </c>
+      <c r="K31">
+        <v>1.001712299137719</v>
+      </c>
+      <c r="L31">
+        <v>1.001712299137719</v>
+      </c>
+      <c r="M31">
+        <v>0.9974315492984256</v>
+      </c>
+      <c r="N31">
+        <v>0.9974315492984256</v>
+      </c>
+      <c r="O31">
+        <v>0.9970320116793415</v>
+      </c>
+      <c r="P31">
+        <v>0.9988584659115235</v>
+      </c>
+      <c r="Q31">
+        <v>0.9988584659115235</v>
+      </c>
+      <c r="R31">
+        <v>0.9995719242180725</v>
+      </c>
+      <c r="S31">
+        <v>0.9995719242180725</v>
+      </c>
+      <c r="T31">
+        <v>0.9998477938547571</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.004040021369863</v>
+      </c>
+      <c r="D32">
+        <v>0.9838399424657532</v>
+      </c>
+      <c r="E32">
+        <v>0.9838399424657532</v>
+      </c>
+      <c r="F32">
+        <v>1.004040021369863</v>
+      </c>
+      <c r="G32">
+        <v>1.004040021369863</v>
+      </c>
+      <c r="H32">
+        <v>1.010773363835616</v>
+      </c>
+      <c r="I32">
+        <v>0.991111970684932</v>
+      </c>
+      <c r="J32">
+        <v>1.004040021369863</v>
+      </c>
+      <c r="K32">
+        <v>1.004040021369863</v>
+      </c>
+      <c r="L32">
+        <v>1.004040021369863</v>
+      </c>
+      <c r="M32">
+        <v>0.9939399819178081</v>
+      </c>
+      <c r="N32">
+        <v>0.9939399819178081</v>
+      </c>
+      <c r="O32">
+        <v>0.9929973115068494</v>
+      </c>
+      <c r="P32">
+        <v>0.9973066617351597</v>
+      </c>
+      <c r="Q32">
+        <v>0.9973066617351597</v>
+      </c>
+      <c r="R32">
+        <v>0.9989900016438356</v>
+      </c>
+      <c r="S32">
+        <v>0.9989900016438356</v>
+      </c>
+      <c r="T32">
+        <v>0.9996408901826483</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.000350206842105</v>
+      </c>
+      <c r="D33">
+        <v>0.9985991510526316</v>
+      </c>
+      <c r="E33">
+        <v>0.9985991510526316</v>
+      </c>
+      <c r="F33">
+        <v>1.000350206842105</v>
+      </c>
+      <c r="G33">
+        <v>1.000350206842105</v>
+      </c>
+      <c r="H33">
+        <v>1.000933897894737</v>
+      </c>
+      <c r="I33">
+        <v>0.999229532631579</v>
+      </c>
+      <c r="J33">
+        <v>1.000350206842105</v>
+      </c>
+      <c r="K33">
+        <v>1.000350206842105</v>
+      </c>
+      <c r="L33">
+        <v>1.000350206842105</v>
+      </c>
+      <c r="M33">
+        <v>0.9994746789473685</v>
+      </c>
+      <c r="N33">
+        <v>0.9994746789473685</v>
+      </c>
+      <c r="O33">
+        <v>0.999392963508772</v>
+      </c>
+      <c r="P33">
+        <v>0.9997665215789474</v>
+      </c>
+      <c r="Q33">
+        <v>0.9997665215789474</v>
+      </c>
+      <c r="R33">
+        <v>0.9999124428947369</v>
+      </c>
+      <c r="S33">
+        <v>0.9999124428947369</v>
+      </c>
+      <c r="T33">
+        <v>0.9999688670175439</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.001810727894737</v>
+      </c>
+      <c r="D34">
+        <v>0.9927570742105264</v>
+      </c>
+      <c r="E34">
+        <v>0.9927570742105264</v>
+      </c>
+      <c r="F34">
+        <v>1.001810727894737</v>
+      </c>
+      <c r="G34">
+        <v>1.001810727894737</v>
+      </c>
+      <c r="H34">
+        <v>1.004828616842105</v>
+      </c>
+      <c r="I34">
+        <v>0.9960163978947367</v>
+      </c>
+      <c r="J34">
+        <v>1.001810727894737</v>
+      </c>
+      <c r="K34">
+        <v>1.001810727894737</v>
+      </c>
+      <c r="L34">
+        <v>1.001810727894737</v>
+      </c>
+      <c r="M34">
+        <v>0.9972839010526318</v>
+      </c>
+      <c r="N34">
+        <v>0.9972839010526318</v>
+      </c>
+      <c r="O34">
+        <v>0.9968614000000001</v>
+      </c>
+      <c r="P34">
+        <v>0.9987928433333334</v>
+      </c>
+      <c r="Q34">
+        <v>0.9987928433333334</v>
+      </c>
+      <c r="R34">
+        <v>0.9995473144736844</v>
+      </c>
+      <c r="S34">
+        <v>0.9995473144736844</v>
+      </c>
+      <c r="T34">
+        <v>0.9998390454385966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.006232519984409</v>
+      </c>
+      <c r="D35">
+        <v>0.9750699954932591</v>
+      </c>
+      <c r="E35">
+        <v>0.9750699954932591</v>
+      </c>
+      <c r="F35">
+        <v>1.006232519984409</v>
+      </c>
+      <c r="G35">
+        <v>1.006232519984409</v>
+      </c>
+      <c r="H35">
+        <v>1.016619985084482</v>
+      </c>
+      <c r="I35">
+        <v>0.9862884956426564</v>
+      </c>
+      <c r="J35">
+        <v>1.006232519984409</v>
+      </c>
+      <c r="K35">
+        <v>1.006232519984409</v>
+      </c>
+      <c r="L35">
+        <v>1.006232519984409</v>
+      </c>
+      <c r="M35">
+        <v>0.9906512577388339</v>
+      </c>
+      <c r="N35">
+        <v>0.9906512577388339</v>
+      </c>
+      <c r="O35">
+        <v>0.9891970037067748</v>
+      </c>
+      <c r="P35">
+        <v>0.9958450118206921</v>
+      </c>
+      <c r="Q35">
+        <v>0.9958450118206921</v>
+      </c>
+      <c r="R35">
+        <v>0.9984418888616212</v>
+      </c>
+      <c r="S35">
+        <v>0.9984418888616212</v>
+      </c>
+      <c r="T35">
+        <v>0.9994460060289372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000000732121002</v>
+      </c>
+      <c r="D36">
+        <v>0.99999706731769</v>
+      </c>
+      <c r="E36">
+        <v>0.99999706731769</v>
+      </c>
+      <c r="F36">
+        <v>1.000000732121002</v>
+      </c>
+      <c r="G36">
+        <v>1.000000732121002</v>
+      </c>
+      <c r="H36">
+        <v>1.000001953660895</v>
+      </c>
+      <c r="I36">
+        <v>0.9999983859828933</v>
+      </c>
+      <c r="J36">
+        <v>1.000000732121002</v>
+      </c>
+      <c r="K36">
+        <v>1.000000732121002</v>
+      </c>
+      <c r="L36">
+        <v>1.000000732121002</v>
+      </c>
+      <c r="M36">
+        <v>0.9999988997193459</v>
+      </c>
+      <c r="N36">
+        <v>0.9999988997193459</v>
+      </c>
+      <c r="O36">
+        <v>0.9999987284738617</v>
+      </c>
+      <c r="P36">
+        <v>0.9999995105198979</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999995105198979</v>
+      </c>
+      <c r="R36">
+        <v>0.999999815920174</v>
+      </c>
+      <c r="S36">
+        <v>0.999999815920174</v>
+      </c>
+      <c r="T36">
+        <v>0.999999933887414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000015527383392</v>
+      </c>
+      <c r="D37">
+        <v>0.9999378873894239</v>
+      </c>
+      <c r="E37">
+        <v>0.9999378873894239</v>
+      </c>
+      <c r="F37">
+        <v>1.000015527383392</v>
+      </c>
+      <c r="G37">
+        <v>1.000015527383392</v>
+      </c>
+      <c r="H37">
+        <v>1.000041406958194</v>
+      </c>
+      <c r="I37">
+        <v>0.9999658369646389</v>
+      </c>
+      <c r="J37">
+        <v>1.000015527383392</v>
+      </c>
+      <c r="K37">
+        <v>1.000015527383392</v>
+      </c>
+      <c r="L37">
+        <v>1.000015527383392</v>
+      </c>
+      <c r="M37">
+        <v>0.9999767073864076</v>
+      </c>
+      <c r="N37">
+        <v>0.9999767073864076</v>
+      </c>
+      <c r="O37">
+        <v>0.9999730839124847</v>
+      </c>
+      <c r="P37">
+        <v>0.9999896473854023</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999896473854023</v>
+      </c>
+      <c r="R37">
+        <v>0.9999961173848996</v>
+      </c>
+      <c r="S37">
+        <v>0.9999961173848996</v>
+      </c>
+      <c r="T37">
+        <v>0.9999986189104052</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000054672108268</v>
+      </c>
+      <c r="D38">
+        <v>0.9997813198505049</v>
+      </c>
+      <c r="E38">
+        <v>0.9997813198505049</v>
+      </c>
+      <c r="F38">
+        <v>1.000054672108268</v>
+      </c>
+      <c r="G38">
+        <v>1.000054672108268</v>
+      </c>
+      <c r="H38">
+        <v>1.000145785037504</v>
+      </c>
+      <c r="I38">
+        <v>0.9998797233996437</v>
+      </c>
+      <c r="J38">
+        <v>1.000054672108268</v>
+      </c>
+      <c r="K38">
+        <v>1.000054672108268</v>
+      </c>
+      <c r="L38">
+        <v>1.000054672108268</v>
+      </c>
+      <c r="M38">
+        <v>0.9999179959793867</v>
+      </c>
+      <c r="N38">
+        <v>0.9999179959793867</v>
+      </c>
+      <c r="O38">
+        <v>0.9999052384528057</v>
+      </c>
+      <c r="P38">
+        <v>0.999963554689014</v>
+      </c>
+      <c r="Q38">
+        <v>0.999963554689014</v>
+      </c>
+      <c r="R38">
+        <v>0.9999863340438275</v>
+      </c>
+      <c r="S38">
+        <v>0.9999863340438275</v>
+      </c>
+      <c r="T38">
+        <v>0.9999951407687431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000128074664341</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9994876928119305</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9994876928119305</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000128074664341</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000128074664341</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000341535961878</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9997182317698193</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000128074664341</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000128074664341</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000128074664341</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9998078837381359</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9998078837381359</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9997779997486971</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.999914614046871</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.999914614046871</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999679792012386</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999679792012386</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999886140894421</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.000567797813404</v>
+      </c>
+      <c r="D40">
+        <v>0.9977288036680433</v>
+      </c>
+      <c r="E40">
+        <v>0.9977288036680433</v>
+      </c>
+      <c r="F40">
+        <v>1.000567797813404</v>
+      </c>
+      <c r="G40">
+        <v>1.000567797813404</v>
+      </c>
+      <c r="H40">
+        <v>1.001514129715999</v>
+      </c>
+      <c r="I40">
+        <v>0.9987508416682884</v>
+      </c>
+      <c r="J40">
+        <v>1.000567797813404</v>
+      </c>
+      <c r="K40">
+        <v>1.000567797813404</v>
+      </c>
+      <c r="L40">
+        <v>1.000567797813404</v>
+      </c>
+      <c r="M40">
+        <v>0.9991483007407236</v>
+      </c>
+      <c r="N40">
+        <v>0.9991483007407236</v>
+      </c>
+      <c r="O40">
+        <v>0.9990158143832453</v>
+      </c>
+      <c r="P40">
+        <v>0.9996214664316169</v>
+      </c>
+      <c r="Q40">
+        <v>0.9996214664316169</v>
+      </c>
+      <c r="R40">
+        <v>0.9998580492770637</v>
+      </c>
+      <c r="S40">
+        <v>0.9998580492770637</v>
+      </c>
+      <c r="T40">
+        <v>0.9999495280820904</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.00010764943918</v>
+      </c>
+      <c r="D41">
+        <v>0.9995693983120779</v>
+      </c>
+      <c r="E41">
+        <v>0.9995693983120779</v>
+      </c>
+      <c r="F41">
+        <v>1.00010764943918</v>
+      </c>
+      <c r="G41">
+        <v>1.00010764943918</v>
+      </c>
+      <c r="H41">
+        <v>1.000287067578119</v>
+      </c>
+      <c r="I41">
+        <v>0.9997631675685815</v>
+      </c>
+      <c r="J41">
+        <v>1.00010764943918</v>
+      </c>
+      <c r="K41">
+        <v>1.00010764943918</v>
+      </c>
+      <c r="L41">
+        <v>1.00010764943918</v>
+      </c>
+      <c r="M41">
+        <v>0.9998385238756288</v>
+      </c>
+      <c r="N41">
+        <v>0.9998385238756288</v>
+      </c>
+      <c r="O41">
+        <v>0.9998134051066131</v>
+      </c>
+      <c r="P41">
+        <v>0.9999282323968123</v>
+      </c>
+      <c r="Q41">
+        <v>0.9999282323968123</v>
+      </c>
+      <c r="R41">
+        <v>0.9999730866574041</v>
+      </c>
+      <c r="S41">
+        <v>0.9999730866574041</v>
+      </c>
+      <c r="T41">
+        <v>0.9999904302960528</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.002640697651658</v>
+      </c>
+      <c r="D42">
+        <v>0.989437205780023</v>
+      </c>
+      <c r="E42">
+        <v>0.989437205780023</v>
+      </c>
+      <c r="F42">
+        <v>1.002640697651658</v>
+      </c>
+      <c r="G42">
+        <v>1.002640697651658</v>
+      </c>
+      <c r="H42">
+        <v>1.007041862689131</v>
+      </c>
+      <c r="I42">
+        <v>0.994190462922415</v>
+      </c>
+      <c r="J42">
+        <v>1.002640697651658</v>
+      </c>
+      <c r="K42">
+        <v>1.002640697651658</v>
+      </c>
+      <c r="L42">
+        <v>1.002640697651658</v>
+      </c>
+      <c r="M42">
+        <v>0.9960389517158408</v>
+      </c>
+      <c r="N42">
+        <v>0.9960389517158408</v>
+      </c>
+      <c r="O42">
+        <v>0.9954227887846988</v>
+      </c>
+      <c r="P42">
+        <v>0.9982395336944467</v>
+      </c>
+      <c r="Q42">
+        <v>0.9982395336944467</v>
+      </c>
+      <c r="R42">
+        <v>0.9993398246837497</v>
+      </c>
+      <c r="S42">
+        <v>0.9993398246837497</v>
+      </c>
+      <c r="T42">
+        <v>0.9997652707244241</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW45.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000177562630677</v>
+        <v>1.000029534586767</v>
       </c>
       <c r="D3">
-        <v>0.9992897469496687</v>
+        <v>0.9998818566735191</v>
       </c>
       <c r="E3">
-        <v>1.000177562630677</v>
+        <v>0.9998818566735191</v>
       </c>
       <c r="F3">
-        <v>1.000177562630677</v>
+        <v>1.000029534586767</v>
       </c>
       <c r="G3">
-        <v>1.000473500403536</v>
+        <v>1.000029534586767</v>
       </c>
       <c r="H3">
-        <v>0.999609359821213</v>
+        <v>1.000078760347863</v>
       </c>
       <c r="I3">
-        <v>1.000177562630677</v>
+        <v>0.9999350202918704</v>
       </c>
       <c r="J3">
-        <v>0.9992897469496687</v>
+        <v>1.000029534586767</v>
       </c>
       <c r="K3">
-        <v>1.000177562630677</v>
+        <v>1.000029534586767</v>
       </c>
       <c r="L3">
-        <v>1.000177562630677</v>
+        <v>1.000029534586767</v>
       </c>
       <c r="M3">
-        <v>0.9997336547901727</v>
+        <v>0.9999556956301432</v>
       </c>
       <c r="N3">
-        <v>0.9997336547901727</v>
+        <v>0.9999556956301432</v>
       </c>
       <c r="O3">
-        <v>0.9996922231338529</v>
+        <v>0.9999488038507188</v>
       </c>
       <c r="P3">
-        <v>0.9998816240703409</v>
+        <v>0.9999803086156845</v>
       </c>
       <c r="Q3">
-        <v>0.9998816240703409</v>
+        <v>0.9999803086156845</v>
       </c>
       <c r="R3">
-        <v>0.9999556087104249</v>
+        <v>0.9999926151084553</v>
       </c>
       <c r="S3">
-        <v>0.9999556087104249</v>
+        <v>0.9999926151084553</v>
       </c>
       <c r="T3">
-        <v>0.9999842158444081</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>0.999997373512259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000342783785597</v>
+        <v>1.000567797813404</v>
       </c>
       <c r="D4">
-        <v>0.998628864621817</v>
+        <v>0.9977288036680433</v>
       </c>
       <c r="E4">
-        <v>1.000342783785597</v>
+        <v>0.9977288036680433</v>
       </c>
       <c r="F4">
-        <v>1.000342783785597</v>
+        <v>1.000567797813404</v>
       </c>
       <c r="G4">
-        <v>1.00091408876045</v>
+        <v>1.000567797813404</v>
       </c>
       <c r="H4">
-        <v>0.9992458762923303</v>
+        <v>1.001514129715999</v>
       </c>
       <c r="I4">
-        <v>1.000342783785597</v>
+        <v>0.9987508416682884</v>
       </c>
       <c r="J4">
-        <v>0.998628864621817</v>
+        <v>1.000567797813404</v>
       </c>
       <c r="K4">
-        <v>1.000342783785597</v>
+        <v>1.000567797813404</v>
       </c>
       <c r="L4">
-        <v>1.000342783785597</v>
+        <v>1.000567797813404</v>
       </c>
       <c r="M4">
-        <v>0.999485824203707</v>
+        <v>0.9991483007407236</v>
       </c>
       <c r="N4">
-        <v>0.999485824203707</v>
+        <v>0.9991483007407236</v>
       </c>
       <c r="O4">
-        <v>0.9994058415665815</v>
+        <v>0.9990158143832453</v>
       </c>
       <c r="P4">
-        <v>0.9997714773976704</v>
+        <v>0.9996214664316169</v>
       </c>
       <c r="Q4">
-        <v>0.9997714773976704</v>
+        <v>0.9996214664316169</v>
       </c>
       <c r="R4">
-        <v>0.9999143039946521</v>
+        <v>0.9998580492770637</v>
       </c>
       <c r="S4">
-        <v>0.9999143039946521</v>
+        <v>0.9998580492770637</v>
       </c>
       <c r="T4">
-        <v>0.9999695301718982</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.9999495280820904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000656904701122</v>
+        <v>1.001857319142648</v>
       </c>
       <c r="D5">
-        <v>0.9973723859713037</v>
+        <v>0.9925707285014431</v>
       </c>
       <c r="E5">
-        <v>1.000656904701122</v>
+        <v>0.9925707285014431</v>
       </c>
       <c r="F5">
-        <v>1.000656904701122</v>
+        <v>1.001857319142648</v>
       </c>
       <c r="G5">
-        <v>1.001751740416642</v>
+        <v>1.001857319142648</v>
       </c>
       <c r="H5">
-        <v>0.9985548114011782</v>
+        <v>1.004952843832855</v>
       </c>
       <c r="I5">
-        <v>1.000656904701122</v>
+        <v>0.9959138998414964</v>
       </c>
       <c r="J5">
-        <v>0.9973723859713037</v>
+        <v>1.001857319142648</v>
       </c>
       <c r="K5">
-        <v>1.000656904701122</v>
+        <v>1.001857319142648</v>
       </c>
       <c r="L5">
-        <v>1.000656904701122</v>
+        <v>1.001857319142648</v>
       </c>
       <c r="M5">
-        <v>0.9990146453362128</v>
+        <v>0.9972140238220456</v>
       </c>
       <c r="N5">
-        <v>0.9990146453362128</v>
+        <v>0.9972140238220456</v>
       </c>
       <c r="O5">
-        <v>0.9988613673578679</v>
+        <v>0.9967806491618626</v>
       </c>
       <c r="P5">
-        <v>0.9995620651245157</v>
+        <v>0.998761788928913</v>
       </c>
       <c r="Q5">
-        <v>0.9995620651245157</v>
+        <v>0.998761788928913</v>
       </c>
       <c r="R5">
-        <v>0.9998357750186673</v>
+        <v>0.9995356714823468</v>
       </c>
       <c r="S5">
-        <v>0.9998357750186673</v>
+        <v>0.9995356714823468</v>
       </c>
       <c r="T5">
-        <v>0.9999416086487484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>0.9998349049339564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000963470611183</v>
+        <v>1.006232519984409</v>
       </c>
       <c r="D6">
-        <v>0.9961461324032457</v>
+        <v>0.9750699954932591</v>
       </c>
       <c r="E6">
-        <v>1.000963470611183</v>
+        <v>0.9750699954932591</v>
       </c>
       <c r="F6">
-        <v>1.000963470611183</v>
+        <v>1.006232519984409</v>
       </c>
       <c r="G6">
-        <v>1.002569242737172</v>
+        <v>1.006232519984409</v>
       </c>
       <c r="H6">
-        <v>0.9978803745681247</v>
+        <v>1.016619985084482</v>
       </c>
       <c r="I6">
-        <v>1.000963470611183</v>
+        <v>0.9862884956426564</v>
       </c>
       <c r="J6">
-        <v>0.9961461324032457</v>
+        <v>1.006232519984409</v>
       </c>
       <c r="K6">
-        <v>1.000963470611183</v>
+        <v>1.006232519984409</v>
       </c>
       <c r="L6">
-        <v>1.000963470611183</v>
+        <v>1.006232519984409</v>
       </c>
       <c r="M6">
-        <v>0.9985548015072141</v>
+        <v>0.9906512577388339</v>
       </c>
       <c r="N6">
-        <v>0.9985548015072141</v>
+        <v>0.9906512577388339</v>
       </c>
       <c r="O6">
-        <v>0.9983299925275176</v>
+        <v>0.9891970037067748</v>
       </c>
       <c r="P6">
-        <v>0.9993576912085369</v>
+        <v>0.9958450118206921</v>
       </c>
       <c r="Q6">
-        <v>0.9993576912085369</v>
+        <v>0.9958450118206921</v>
       </c>
       <c r="R6">
-        <v>0.9997591360591983</v>
+        <v>0.9984418888616212</v>
       </c>
       <c r="S6">
-        <v>0.9997591360591983</v>
+        <v>0.9984418888616212</v>
       </c>
       <c r="T6">
-        <v>0.999914360257015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>0.9994460060289372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000012004429357</v>
+        <v>1.000194353510354</v>
       </c>
       <c r="D7">
-        <v>0.9999519783418052</v>
+        <v>0.999222583875949</v>
       </c>
       <c r="E7">
-        <v>1.000012004429357</v>
+        <v>0.999222583875949</v>
       </c>
       <c r="F7">
-        <v>1.000012004429357</v>
+        <v>1.000194353510354</v>
       </c>
       <c r="G7">
-        <v>1.00003201275031</v>
+        <v>1.000194353510354</v>
       </c>
       <c r="H7">
-        <v>0.9999735870908835</v>
+        <v>1.000518275651999</v>
       </c>
       <c r="I7">
-        <v>1.000012004429357</v>
+        <v>0.999572420773546</v>
       </c>
       <c r="J7">
-        <v>0.9999519783418052</v>
+        <v>1.000194353510354</v>
       </c>
       <c r="K7">
-        <v>1.000012004429357</v>
+        <v>1.000194353510354</v>
       </c>
       <c r="L7">
-        <v>1.000012004429357</v>
+        <v>1.000194353510354</v>
       </c>
       <c r="M7">
-        <v>0.9999819913855811</v>
+        <v>0.9997084686931516</v>
       </c>
       <c r="N7">
-        <v>0.9999819913855811</v>
+        <v>0.9997084686931516</v>
       </c>
       <c r="O7">
-        <v>0.9999791899540152</v>
+        <v>0.9996631193866164</v>
       </c>
       <c r="P7">
-        <v>0.9999919957335064</v>
+        <v>0.9998704302988858</v>
       </c>
       <c r="Q7">
-        <v>0.9999919957335064</v>
+        <v>0.9998704302988858</v>
       </c>
       <c r="R7">
-        <v>0.999996997907469</v>
+        <v>0.9999514111017529</v>
       </c>
       <c r="S7">
-        <v>0.999996997907469</v>
+        <v>0.9999514111017529</v>
       </c>
       <c r="T7">
-        <v>0.9999989319118451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.9999827234720927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000029534586767</v>
+        <v>1.000015527383392</v>
       </c>
       <c r="D8">
-        <v>0.9998818566735191</v>
+        <v>0.9999378873894239</v>
       </c>
       <c r="E8">
-        <v>1.000029534586767</v>
+        <v>0.9999378873894239</v>
       </c>
       <c r="F8">
-        <v>1.000029534586767</v>
+        <v>1.000015527383392</v>
       </c>
       <c r="G8">
-        <v>1.000078760347863</v>
+        <v>1.000015527383392</v>
       </c>
       <c r="H8">
-        <v>0.9999350202918704</v>
+        <v>1.000041406958194</v>
       </c>
       <c r="I8">
-        <v>1.000029534586767</v>
+        <v>0.9999658369646389</v>
       </c>
       <c r="J8">
-        <v>0.9998818566735191</v>
+        <v>1.000015527383392</v>
       </c>
       <c r="K8">
-        <v>1.000029534586767</v>
+        <v>1.000015527383392</v>
       </c>
       <c r="L8">
-        <v>1.000029534586767</v>
+        <v>1.000015527383392</v>
       </c>
       <c r="M8">
-        <v>0.9999556956301432</v>
+        <v>0.9999767073864076</v>
       </c>
       <c r="N8">
-        <v>0.9999556956301432</v>
+        <v>0.9999767073864076</v>
       </c>
       <c r="O8">
-        <v>0.9999488038507188</v>
+        <v>0.9999730839124847</v>
       </c>
       <c r="P8">
-        <v>0.9999803086156845</v>
+        <v>0.9999896473854023</v>
       </c>
       <c r="Q8">
-        <v>0.9999803086156845</v>
+        <v>0.9999896473854023</v>
       </c>
       <c r="R8">
-        <v>0.9999926151084553</v>
+        <v>0.9999961173848996</v>
       </c>
       <c r="S8">
-        <v>0.9999926151084553</v>
+        <v>0.9999961173848996</v>
       </c>
       <c r="T8">
-        <v>0.999997373512259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>0.9999986189104052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000039562516712</v>
+        <v>1.000342783785597</v>
       </c>
       <c r="D9">
-        <v>0.9998417469650833</v>
+        <v>0.9986288646218171</v>
       </c>
       <c r="E9">
-        <v>1.000039562516712</v>
+        <v>0.9986288646218171</v>
       </c>
       <c r="F9">
-        <v>1.000039562516712</v>
+        <v>1.000342783785597</v>
       </c>
       <c r="G9">
-        <v>1.000105500420685</v>
+        <v>1.000342783785597</v>
       </c>
       <c r="H9">
-        <v>0.9999129594989009</v>
+        <v>1.00091408876045</v>
       </c>
       <c r="I9">
-        <v>1.000039562516712</v>
+        <v>0.9992458762923303</v>
       </c>
       <c r="J9">
-        <v>0.9998417469650833</v>
+        <v>1.000342783785597</v>
       </c>
       <c r="K9">
-        <v>1.000039562516712</v>
+        <v>1.000342783785597</v>
       </c>
       <c r="L9">
-        <v>1.000039562516712</v>
+        <v>1.000342783785597</v>
       </c>
       <c r="M9">
-        <v>0.9999406547408978</v>
+        <v>0.9994858242037071</v>
       </c>
       <c r="N9">
-        <v>0.9999406547408978</v>
+        <v>0.9994858242037071</v>
       </c>
       <c r="O9">
-        <v>0.9999314229935655</v>
+        <v>0.9994058415665815</v>
       </c>
       <c r="P9">
-        <v>0.9999736239995025</v>
+        <v>0.9997714773976704</v>
       </c>
       <c r="Q9">
-        <v>0.9999736239995025</v>
+        <v>0.9997714773976704</v>
       </c>
       <c r="R9">
-        <v>0.999990108628805</v>
+        <v>0.9999143039946521</v>
       </c>
       <c r="S9">
-        <v>0.999990108628805</v>
+        <v>0.9999143039946521</v>
       </c>
       <c r="T9">
-        <v>0.999996482405801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>0.9999695301718982</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00008693844367</v>
+        <v>1.00632531307852</v>
       </c>
       <c r="D10">
-        <v>0.9996522468494728</v>
+        <v>0.9746988245687764</v>
       </c>
       <c r="E10">
-        <v>1.00008693844367</v>
+        <v>0.9746988245687764</v>
       </c>
       <c r="F10">
-        <v>1.00008693844367</v>
+        <v>1.00632531307852</v>
       </c>
       <c r="G10">
-        <v>1.000231834910702</v>
+        <v>1.00632531307852</v>
       </c>
       <c r="H10">
-        <v>0.9998087338358388</v>
+        <v>1.016867431552533</v>
       </c>
       <c r="I10">
-        <v>1.00008693844367</v>
+        <v>0.9860843516663322</v>
       </c>
       <c r="J10">
-        <v>0.9996522468494728</v>
+        <v>1.00632531307852</v>
       </c>
       <c r="K10">
-        <v>1.00008693844367</v>
+        <v>1.00632531307852</v>
       </c>
       <c r="L10">
-        <v>1.00008693844367</v>
+        <v>1.00632531307852</v>
       </c>
       <c r="M10">
-        <v>0.9998695926465713</v>
+        <v>0.9905120688236483</v>
       </c>
       <c r="N10">
-        <v>0.9998695926465713</v>
+        <v>0.9905120688236483</v>
       </c>
       <c r="O10">
-        <v>0.9998493063763272</v>
+        <v>0.9890361631045429</v>
       </c>
       <c r="P10">
-        <v>0.9999420412456042</v>
+        <v>0.9957831502419389</v>
       </c>
       <c r="Q10">
-        <v>0.9999420412456042</v>
+        <v>0.9957831502419389</v>
       </c>
       <c r="R10">
-        <v>0.9999782655451206</v>
+        <v>0.9984186909510842</v>
       </c>
       <c r="S10">
-        <v>0.9999782655451206</v>
+        <v>0.9984186909510842</v>
       </c>
       <c r="T10">
-        <v>0.9999922718211706</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>0.9994377578372003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000140070328065</v>
+        <v>1.001037192160296</v>
       </c>
       <c r="D11">
-        <v>0.9994397158783807</v>
+        <v>0.9958512291428387</v>
       </c>
       <c r="E11">
-        <v>1.000140070328065</v>
+        <v>0.9958512291428387</v>
       </c>
       <c r="F11">
-        <v>1.000140070328065</v>
+        <v>1.001037192160296</v>
       </c>
       <c r="G11">
-        <v>1.000373519985333</v>
+        <v>1.001037192160296</v>
       </c>
       <c r="H11">
-        <v>0.9996918427100602</v>
+        <v>1.002765847064814</v>
       </c>
       <c r="I11">
-        <v>1.000140070328065</v>
+        <v>0.9977181751318878</v>
       </c>
       <c r="J11">
-        <v>0.9994397158783807</v>
+        <v>1.001037192160296</v>
       </c>
       <c r="K11">
-        <v>1.000140070328065</v>
+        <v>1.001037192160296</v>
       </c>
       <c r="L11">
-        <v>1.000140070328065</v>
+        <v>1.001037192160296</v>
       </c>
       <c r="M11">
-        <v>0.9997898931032225</v>
+        <v>0.9984442106515675</v>
       </c>
       <c r="N11">
-        <v>0.9997898931032225</v>
+        <v>0.9984442106515675</v>
       </c>
       <c r="O11">
-        <v>0.9997572096388351</v>
+        <v>0.9982021988116743</v>
       </c>
       <c r="P11">
-        <v>0.9999066188448366</v>
+        <v>0.9993085378211438</v>
       </c>
       <c r="Q11">
-        <v>0.9999066188448366</v>
+        <v>0.9993085378211438</v>
       </c>
       <c r="R11">
-        <v>0.9999649817156435</v>
+        <v>0.999740701405932</v>
       </c>
       <c r="S11">
-        <v>0.9999649817156435</v>
+        <v>0.999740701405932</v>
       </c>
       <c r="T11">
-        <v>0.9999875482596612</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.9999078046367383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9987391737253933</v>
+        <v>1.001915866915787</v>
       </c>
       <c r="D12">
-        <v>1.005043288796453</v>
+        <v>0.9923365413894735</v>
       </c>
       <c r="E12">
-        <v>0.9987391737253933</v>
+        <v>0.9923365413894735</v>
       </c>
       <c r="F12">
-        <v>0.9987391737253933</v>
+        <v>1.001915866915787</v>
       </c>
       <c r="G12">
-        <v>0.9966378058231855</v>
+        <v>1.001915866915787</v>
       </c>
       <c r="H12">
-        <v>1.002773808974117</v>
+        <v>1.005108967452633</v>
       </c>
       <c r="I12">
-        <v>0.9987391737253933</v>
+        <v>0.9957850963999977</v>
       </c>
       <c r="J12">
-        <v>1.005043288796453</v>
+        <v>1.001915866915787</v>
       </c>
       <c r="K12">
-        <v>0.9987391737253933</v>
+        <v>1.001915866915787</v>
       </c>
       <c r="L12">
-        <v>0.9987391737253933</v>
+        <v>1.001915866915787</v>
       </c>
       <c r="M12">
-        <v>1.001891231260923</v>
+        <v>0.9971262041526301</v>
       </c>
       <c r="N12">
-        <v>1.001891231260923</v>
+        <v>0.9971262041526301</v>
       </c>
       <c r="O12">
-        <v>1.002185423831988</v>
+        <v>0.9966791682350861</v>
       </c>
       <c r="P12">
-        <v>1.000840545415747</v>
+        <v>0.9987227584070156</v>
       </c>
       <c r="Q12">
-        <v>1.000840545415747</v>
+        <v>0.9987227584070156</v>
       </c>
       <c r="R12">
-        <v>1.000315202493158</v>
+        <v>0.9995210355342083</v>
       </c>
       <c r="S12">
-        <v>1.000315202493158</v>
+        <v>0.9995210355342083</v>
       </c>
       <c r="T12">
-        <v>1.000112070794989</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>0.999829700998244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996748642246593</v>
+        <v>0.9987559804025474</v>
       </c>
       <c r="D13">
-        <v>1.001300539080104</v>
+        <v>1.004976076220032</v>
       </c>
       <c r="E13">
-        <v>0.9996748642246593</v>
+        <v>1.004976076220032</v>
       </c>
       <c r="F13">
-        <v>0.9996748642246593</v>
+        <v>0.9987559804025474</v>
       </c>
       <c r="G13">
-        <v>0.9991329731329354</v>
+        <v>0.9987559804025474</v>
       </c>
       <c r="H13">
-        <v>1.000715292336611</v>
+        <v>0.9966826144240827</v>
       </c>
       <c r="I13">
-        <v>0.9996748642246593</v>
+        <v>1.002736840066385</v>
       </c>
       <c r="J13">
-        <v>1.001300539080104</v>
+        <v>0.9987559804025474</v>
       </c>
       <c r="K13">
-        <v>0.9996748642246593</v>
+        <v>0.9987559804025474</v>
       </c>
       <c r="L13">
-        <v>0.9996748642246593</v>
+        <v>0.9987559804025474</v>
       </c>
       <c r="M13">
-        <v>1.000487701652382</v>
+        <v>1.00186602831129</v>
       </c>
       <c r="N13">
-        <v>1.000487701652382</v>
+        <v>1.00186602831129</v>
       </c>
       <c r="O13">
-        <v>1.000563565213792</v>
+        <v>1.002156298896321</v>
       </c>
       <c r="P13">
-        <v>1.000216755843141</v>
+        <v>1.000829345675042</v>
       </c>
       <c r="Q13">
-        <v>1.000216755843141</v>
+        <v>1.000829345675042</v>
       </c>
       <c r="R13">
-        <v>1.000081282938521</v>
+        <v>1.000311004356919</v>
       </c>
       <c r="S13">
-        <v>1.000081282938521</v>
+        <v>1.000311004356919</v>
       </c>
       <c r="T13">
-        <v>1.000028899537271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>1.000110578653024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9962934937700573</v>
+        <v>1.010928300000002</v>
       </c>
       <c r="D14">
-        <v>1.014826042801522</v>
+        <v>0.9562869499999996</v>
       </c>
       <c r="E14">
-        <v>0.9962934937700573</v>
+        <v>0.9562869499999996</v>
       </c>
       <c r="F14">
-        <v>0.9962934937700573</v>
+        <v>1.010928300000002</v>
       </c>
       <c r="G14">
-        <v>0.9901159739531828</v>
+        <v>1.010928300000002</v>
       </c>
       <c r="H14">
-        <v>1.008154316900208</v>
+        <v>1.029141999999999</v>
       </c>
       <c r="I14">
-        <v>0.9962934937700573</v>
+        <v>0.9759578199999995</v>
       </c>
       <c r="J14">
-        <v>1.014826042801522</v>
+        <v>1.010928300000002</v>
       </c>
       <c r="K14">
-        <v>0.9962934937700573</v>
+        <v>1.010928300000002</v>
       </c>
       <c r="L14">
-        <v>0.9962934937700573</v>
+        <v>1.010928300000002</v>
       </c>
       <c r="M14">
-        <v>1.00555976828579</v>
+        <v>0.9836076250000008</v>
       </c>
       <c r="N14">
-        <v>1.00555976828579</v>
+        <v>0.9836076250000008</v>
       </c>
       <c r="O14">
-        <v>1.006424617823929</v>
+        <v>0.9810576900000004</v>
       </c>
       <c r="P14">
-        <v>1.002471010113879</v>
+        <v>0.9927145166666677</v>
       </c>
       <c r="Q14">
-        <v>1.002471010113879</v>
+        <v>0.9927145166666677</v>
       </c>
       <c r="R14">
-        <v>1.000926631027923</v>
+        <v>0.9972679625000012</v>
       </c>
       <c r="S14">
-        <v>1.000926631027923</v>
+        <v>0.9972679625000012</v>
       </c>
       <c r="T14">
-        <v>1.000329469160848</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>0.9990286116666672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9990232498566435</v>
+        <v>0.9998579199999998</v>
       </c>
       <c r="D15">
-        <v>1.003907008956703</v>
+        <v>1.0005683</v>
       </c>
       <c r="E15">
-        <v>0.9990232498566435</v>
+        <v>1.0005683</v>
       </c>
       <c r="F15">
-        <v>0.9990232498566435</v>
+        <v>0.9998579199999998</v>
       </c>
       <c r="G15">
-        <v>0.9973953295656443</v>
+        <v>0.9998579199999998</v>
       </c>
       <c r="H15">
-        <v>1.002148852977154</v>
+        <v>0.99962112</v>
       </c>
       <c r="I15">
-        <v>0.9990232498566435</v>
+        <v>1.0003126</v>
       </c>
       <c r="J15">
-        <v>1.003907008956703</v>
+        <v>0.9998579199999998</v>
       </c>
       <c r="K15">
-        <v>0.9990232498566435</v>
+        <v>0.9998579199999998</v>
       </c>
       <c r="L15">
-        <v>0.9990232498566435</v>
+        <v>0.9998579199999998</v>
       </c>
       <c r="M15">
-        <v>1.001465129406673</v>
+        <v>1.00021311</v>
       </c>
       <c r="N15">
-        <v>1.001465129406673</v>
+        <v>1.00021311</v>
       </c>
       <c r="O15">
-        <v>1.0016930372635</v>
+        <v>1.000246273333333</v>
       </c>
       <c r="P15">
-        <v>1.000651169556664</v>
+        <v>1.000094713333333</v>
       </c>
       <c r="Q15">
-        <v>1.000651169556664</v>
+        <v>1.000094713333333</v>
       </c>
       <c r="R15">
-        <v>1.000244189631659</v>
+        <v>1.000035515</v>
       </c>
       <c r="S15">
-        <v>1.000244189631659</v>
+        <v>1.000035515</v>
       </c>
       <c r="T15">
-        <v>1.000086823511572</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>1.00001263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000732121002</v>
+        <v>1.0042979</v>
       </c>
       <c r="D16">
-        <v>0.99999706731769</v>
+        <v>0.98280841</v>
       </c>
       <c r="E16">
-        <v>1.000000732121002</v>
+        <v>0.98280841</v>
       </c>
       <c r="F16">
-        <v>1.000000732121002</v>
+        <v>1.0042979</v>
       </c>
       <c r="G16">
-        <v>1.000001953660896</v>
+        <v>1.0042979</v>
       </c>
       <c r="H16">
-        <v>0.9999983859828936</v>
+        <v>1.0114611</v>
       </c>
       <c r="I16">
-        <v>1.000000732121002</v>
+        <v>0.99054463</v>
       </c>
       <c r="J16">
-        <v>0.99999706731769</v>
+        <v>1.0042979</v>
       </c>
       <c r="K16">
-        <v>1.000000732121002</v>
+        <v>1.0042979</v>
       </c>
       <c r="L16">
-        <v>1.000000732121002</v>
+        <v>1.0042979</v>
       </c>
       <c r="M16">
-        <v>0.9999988997193459</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N16">
-        <v>0.9999988997193459</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O16">
-        <v>0.9999987284738617</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P16">
-        <v>0.9999995105198979</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q16">
-        <v>0.9999995105198979</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R16">
-        <v>0.999999815920174</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S16">
-        <v>0.999999815920174</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T16">
-        <v>0.999999933887414</v>
+        <v>0.9996179733333334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000015527383391</v>
+        <v>0.99445595</v>
       </c>
       <c r="D17">
-        <v>0.999937887389424</v>
+        <v>1.0221762</v>
       </c>
       <c r="E17">
-        <v>1.000015527383391</v>
+        <v>1.0221762</v>
       </c>
       <c r="F17">
-        <v>1.000015527383391</v>
+        <v>0.99445595</v>
       </c>
       <c r="G17">
-        <v>1.000041406958194</v>
+        <v>0.99445595</v>
       </c>
       <c r="H17">
-        <v>0.9999658369646389</v>
+        <v>0.9852158599999999</v>
       </c>
       <c r="I17">
-        <v>1.000015527383391</v>
+        <v>1.0121969</v>
       </c>
       <c r="J17">
-        <v>0.999937887389424</v>
+        <v>0.99445595</v>
       </c>
       <c r="K17">
-        <v>1.000015527383391</v>
+        <v>0.99445595</v>
       </c>
       <c r="L17">
-        <v>1.000015527383391</v>
+        <v>0.99445595</v>
       </c>
       <c r="M17">
-        <v>0.9999767073864075</v>
+        <v>1.008316075</v>
       </c>
       <c r="N17">
-        <v>0.9999767073864075</v>
+        <v>1.008316075</v>
       </c>
       <c r="O17">
-        <v>0.9999730839124847</v>
+        <v>1.009609683333333</v>
       </c>
       <c r="P17">
-        <v>0.9999896473854021</v>
+        <v>1.003696033333333</v>
       </c>
       <c r="Q17">
-        <v>0.9999896473854021</v>
+        <v>1.003696033333333</v>
       </c>
       <c r="R17">
-        <v>0.9999961173848994</v>
+        <v>1.0013860125</v>
       </c>
       <c r="S17">
-        <v>0.9999961173848994</v>
+        <v>1.0013860125</v>
       </c>
       <c r="T17">
-        <v>0.999998618910405</v>
+        <v>1.000492801666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000054672108268</v>
+        <v>1.004040021369863</v>
       </c>
       <c r="D18">
-        <v>0.9997813198505049</v>
+        <v>0.9838399424657532</v>
       </c>
       <c r="E18">
-        <v>1.000054672108268</v>
+        <v>0.9838399424657532</v>
       </c>
       <c r="F18">
-        <v>1.000054672108268</v>
+        <v>1.004040021369863</v>
       </c>
       <c r="G18">
-        <v>1.000145785037504</v>
+        <v>1.004040021369863</v>
       </c>
       <c r="H18">
-        <v>0.9998797233996435</v>
+        <v>1.010773363835616</v>
       </c>
       <c r="I18">
-        <v>1.000054672108268</v>
+        <v>0.991111970684932</v>
       </c>
       <c r="J18">
-        <v>0.9997813198505049</v>
+        <v>1.004040021369863</v>
       </c>
       <c r="K18">
-        <v>1.000054672108268</v>
+        <v>1.004040021369863</v>
       </c>
       <c r="L18">
-        <v>1.000054672108268</v>
+        <v>1.004040021369863</v>
       </c>
       <c r="M18">
-        <v>0.9999179959793867</v>
+        <v>0.9939399819178081</v>
       </c>
       <c r="N18">
-        <v>0.9999179959793867</v>
+        <v>0.9939399819178081</v>
       </c>
       <c r="O18">
-        <v>0.9999052384528057</v>
+        <v>0.9929973115068494</v>
       </c>
       <c r="P18">
-        <v>0.999963554689014</v>
+        <v>0.9973066617351597</v>
       </c>
       <c r="Q18">
-        <v>0.999963554689014</v>
+        <v>0.9973066617351597</v>
       </c>
       <c r="R18">
-        <v>0.9999863340438275</v>
+        <v>0.9989900016438356</v>
       </c>
       <c r="S18">
-        <v>0.9999863340438275</v>
+        <v>0.9989900016438356</v>
       </c>
       <c r="T18">
-        <v>0.999995140768743</v>
+        <v>0.9996408901826483</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000128074664341</v>
+        <v>1.000350206842105</v>
       </c>
       <c r="D19">
-        <v>0.9994876928119305</v>
+        <v>0.9985991510526316</v>
       </c>
       <c r="E19">
-        <v>1.000128074664341</v>
+        <v>0.9985991510526316</v>
       </c>
       <c r="F19">
-        <v>1.000128074664341</v>
+        <v>1.000350206842105</v>
       </c>
       <c r="G19">
-        <v>1.000341535961878</v>
+        <v>1.000350206842105</v>
       </c>
       <c r="H19">
-        <v>0.9997182317698193</v>
+        <v>1.000933897894737</v>
       </c>
       <c r="I19">
-        <v>1.000128074664341</v>
+        <v>0.999229532631579</v>
       </c>
       <c r="J19">
-        <v>0.9994876928119305</v>
+        <v>1.000350206842105</v>
       </c>
       <c r="K19">
-        <v>1.000128074664341</v>
+        <v>1.000350206842105</v>
       </c>
       <c r="L19">
-        <v>1.000128074664341</v>
+        <v>1.000350206842105</v>
       </c>
       <c r="M19">
-        <v>0.9998078837381359</v>
+        <v>0.9994746789473685</v>
       </c>
       <c r="N19">
-        <v>0.9998078837381359</v>
+        <v>0.9994746789473685</v>
       </c>
       <c r="O19">
-        <v>0.9997779997486971</v>
+        <v>0.999392963508772</v>
       </c>
       <c r="P19">
-        <v>0.999914614046871</v>
+        <v>0.9997665215789474</v>
       </c>
       <c r="Q19">
-        <v>0.999914614046871</v>
+        <v>0.9997665215789474</v>
       </c>
       <c r="R19">
-        <v>0.9999679792012386</v>
+        <v>0.9999124428947369</v>
       </c>
       <c r="S19">
-        <v>0.9999679792012386</v>
+        <v>0.9999124428947369</v>
       </c>
       <c r="T19">
-        <v>0.9999886140894421</v>
+        <v>0.9999688670175439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.001810727894737</v>
+      </c>
+      <c r="D20">
+        <v>0.9927570742105264</v>
+      </c>
+      <c r="E20">
+        <v>0.9927570742105264</v>
+      </c>
+      <c r="F20">
+        <v>1.001810727894737</v>
+      </c>
+      <c r="G20">
+        <v>1.001810727894737</v>
+      </c>
+      <c r="H20">
+        <v>1.004828616842105</v>
+      </c>
+      <c r="I20">
+        <v>0.9960163978947367</v>
+      </c>
+      <c r="J20">
+        <v>1.001810727894737</v>
+      </c>
+      <c r="K20">
+        <v>1.001810727894737</v>
+      </c>
+      <c r="L20">
+        <v>1.001810727894737</v>
+      </c>
+      <c r="M20">
+        <v>0.9972839010526318</v>
+      </c>
+      <c r="N20">
+        <v>0.9972839010526318</v>
+      </c>
+      <c r="O20">
+        <v>0.9968614000000001</v>
+      </c>
+      <c r="P20">
+        <v>0.9987928433333334</v>
+      </c>
+      <c r="Q20">
+        <v>0.9987928433333334</v>
+      </c>
+      <c r="R20">
+        <v>0.9995473144736844</v>
+      </c>
+      <c r="S20">
+        <v>0.9995473144736844</v>
+      </c>
+      <c r="T20">
+        <v>0.9998390454385966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9962934937700573</v>
+      </c>
+      <c r="D21">
+        <v>1.014826042801522</v>
+      </c>
+      <c r="E21">
+        <v>1.014826042801522</v>
+      </c>
+      <c r="F21">
+        <v>0.9962934937700573</v>
+      </c>
+      <c r="G21">
+        <v>0.9962934937700573</v>
+      </c>
+      <c r="H21">
+        <v>0.9901159739531828</v>
+      </c>
+      <c r="I21">
+        <v>1.008154316900208</v>
+      </c>
+      <c r="J21">
+        <v>0.9962934937700573</v>
+      </c>
+      <c r="K21">
+        <v>0.9962934937700573</v>
+      </c>
+      <c r="L21">
+        <v>0.9962934937700573</v>
+      </c>
+      <c r="M21">
+        <v>1.00555976828579</v>
+      </c>
+      <c r="N21">
+        <v>1.00555976828579</v>
+      </c>
+      <c r="O21">
+        <v>1.006424617823929</v>
+      </c>
+      <c r="P21">
+        <v>1.002471010113879</v>
+      </c>
+      <c r="Q21">
+        <v>1.002471010113879</v>
+      </c>
+      <c r="R21">
+        <v>1.000926631027923</v>
+      </c>
+      <c r="S21">
+        <v>1.000926631027923</v>
+      </c>
+      <c r="T21">
+        <v>1.000329469160848</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9990232498566435</v>
+      </c>
+      <c r="D22">
+        <v>1.003907008956704</v>
+      </c>
+      <c r="E22">
+        <v>1.003907008956704</v>
+      </c>
+      <c r="F22">
+        <v>0.9990232498566435</v>
+      </c>
+      <c r="G22">
+        <v>0.9990232498566435</v>
+      </c>
+      <c r="H22">
+        <v>0.9973953295656443</v>
+      </c>
+      <c r="I22">
+        <v>1.002148852977154</v>
+      </c>
+      <c r="J22">
+        <v>0.9990232498566435</v>
+      </c>
+      <c r="K22">
+        <v>0.9990232498566435</v>
+      </c>
+      <c r="L22">
+        <v>0.9990232498566435</v>
+      </c>
+      <c r="M22">
+        <v>1.001465129406674</v>
+      </c>
+      <c r="N22">
+        <v>1.001465129406674</v>
+      </c>
+      <c r="O22">
+        <v>1.0016930372635</v>
+      </c>
+      <c r="P22">
+        <v>1.000651169556664</v>
+      </c>
+      <c r="Q22">
+        <v>1.000651169556664</v>
+      </c>
+      <c r="R22">
+        <v>1.000244189631659</v>
+      </c>
+      <c r="S22">
+        <v>1.000244189631659</v>
+      </c>
+      <c r="T22">
+        <v>1.000086823511572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9987391737253933</v>
+      </c>
+      <c r="D23">
+        <v>1.005043288796453</v>
+      </c>
+      <c r="E23">
+        <v>1.005043288796453</v>
+      </c>
+      <c r="F23">
+        <v>0.9987391737253933</v>
+      </c>
+      <c r="G23">
+        <v>0.9987391737253933</v>
+      </c>
+      <c r="H23">
+        <v>0.9966378058231855</v>
+      </c>
+      <c r="I23">
+        <v>1.002773808974117</v>
+      </c>
+      <c r="J23">
+        <v>0.9987391737253933</v>
+      </c>
+      <c r="K23">
+        <v>0.9987391737253933</v>
+      </c>
+      <c r="L23">
+        <v>0.9987391737253933</v>
+      </c>
+      <c r="M23">
+        <v>1.001891231260923</v>
+      </c>
+      <c r="N23">
+        <v>1.001891231260923</v>
+      </c>
+      <c r="O23">
+        <v>1.002185423831988</v>
+      </c>
+      <c r="P23">
+        <v>1.000840545415747</v>
+      </c>
+      <c r="Q23">
+        <v>1.000840545415747</v>
+      </c>
+      <c r="R23">
+        <v>1.000315202493158</v>
+      </c>
+      <c r="S23">
+        <v>1.000315202493158</v>
+      </c>
+      <c r="T23">
+        <v>1.000112070794989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9996748642246595</v>
+      </c>
+      <c r="D24">
+        <v>1.001300539080104</v>
+      </c>
+      <c r="E24">
+        <v>1.001300539080104</v>
+      </c>
+      <c r="F24">
+        <v>0.9996748642246595</v>
+      </c>
+      <c r="G24">
+        <v>0.9996748642246595</v>
+      </c>
+      <c r="H24">
+        <v>0.9991329731329355</v>
+      </c>
+      <c r="I24">
+        <v>1.000715292336611</v>
+      </c>
+      <c r="J24">
+        <v>0.9996748642246595</v>
+      </c>
+      <c r="K24">
+        <v>0.9996748642246595</v>
+      </c>
+      <c r="L24">
+        <v>0.9996748642246595</v>
+      </c>
+      <c r="M24">
+        <v>1.000487701652382</v>
+      </c>
+      <c r="N24">
+        <v>1.000487701652382</v>
+      </c>
+      <c r="O24">
+        <v>1.000563565213792</v>
+      </c>
+      <c r="P24">
+        <v>1.000216755843141</v>
+      </c>
+      <c r="Q24">
+        <v>1.000216755843141</v>
+      </c>
+      <c r="R24">
+        <v>1.000081282938521</v>
+      </c>
+      <c r="S24">
+        <v>1.000081282938521</v>
+      </c>
+      <c r="T24">
+        <v>1.000028899537271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000499659344631</v>
+      </c>
+      <c r="D25">
+        <v>0.9980013535098498</v>
+      </c>
+      <c r="E25">
+        <v>0.9980013535098498</v>
+      </c>
+      <c r="F25">
+        <v>1.000499659344631</v>
+      </c>
+      <c r="G25">
+        <v>1.000499659344631</v>
+      </c>
+      <c r="H25">
+        <v>1.001332431797675</v>
+      </c>
+      <c r="I25">
+        <v>0.998900737278186</v>
+      </c>
+      <c r="J25">
+        <v>1.000499659344631</v>
+      </c>
+      <c r="K25">
+        <v>1.000499659344631</v>
+      </c>
+      <c r="L25">
+        <v>1.000499659344631</v>
+      </c>
+      <c r="M25">
+        <v>0.9992505064272403</v>
+      </c>
+      <c r="N25">
+        <v>0.9992505064272403</v>
+      </c>
+      <c r="O25">
+        <v>0.9991339167108889</v>
+      </c>
+      <c r="P25">
+        <v>0.9996668907330372</v>
+      </c>
+      <c r="Q25">
+        <v>0.9996668907330372</v>
+      </c>
+      <c r="R25">
+        <v>0.9998750828859356</v>
+      </c>
+      <c r="S25">
+        <v>0.9998750828859356</v>
+      </c>
+      <c r="T25">
+        <v>0.9999555834366006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000147992962561</v>
+      </c>
+      <c r="D26">
+        <v>0.9994080223133113</v>
+      </c>
+      <c r="E26">
+        <v>0.9994080223133113</v>
+      </c>
+      <c r="F26">
+        <v>1.000147992962561</v>
+      </c>
+      <c r="G26">
+        <v>1.000147992962561</v>
+      </c>
+      <c r="H26">
+        <v>1.000394652767589</v>
+      </c>
+      <c r="I26">
+        <v>0.9996744073508504</v>
+      </c>
+      <c r="J26">
+        <v>1.000147992962561</v>
+      </c>
+      <c r="K26">
+        <v>1.000147992962561</v>
+      </c>
+      <c r="L26">
+        <v>1.000147992962561</v>
+      </c>
+      <c r="M26">
+        <v>0.9997780076379359</v>
+      </c>
+      <c r="N26">
+        <v>0.9997780076379359</v>
+      </c>
+      <c r="O26">
+        <v>0.9997434742089074</v>
+      </c>
+      <c r="P26">
+        <v>0.9999013360794775</v>
+      </c>
+      <c r="Q26">
+        <v>0.9999013360794775</v>
+      </c>
+      <c r="R26">
+        <v>0.9999630003002482</v>
+      </c>
+      <c r="S26">
+        <v>0.9999630003002482</v>
+      </c>
+      <c r="T26">
+        <v>0.9999868435532386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000651333658675</v>
+      </c>
+      <c r="D27">
+        <v>0.9973947004264062</v>
+      </c>
+      <c r="E27">
+        <v>0.9973947004264062</v>
+      </c>
+      <c r="F27">
+        <v>1.000651333658675</v>
+      </c>
+      <c r="G27">
+        <v>1.000651333658675</v>
+      </c>
+      <c r="H27">
+        <v>1.001736866312104</v>
+      </c>
+      <c r="I27">
+        <v>0.9985670821695073</v>
+      </c>
+      <c r="J27">
+        <v>1.000651333658675</v>
+      </c>
+      <c r="K27">
+        <v>1.000651333658675</v>
+      </c>
+      <c r="L27">
+        <v>1.000651333658675</v>
+      </c>
+      <c r="M27">
+        <v>0.9990230170425405</v>
+      </c>
+      <c r="N27">
+        <v>0.9990230170425405</v>
+      </c>
+      <c r="O27">
+        <v>0.9988710387515294</v>
+      </c>
+      <c r="P27">
+        <v>0.9995657892479185</v>
+      </c>
+      <c r="Q27">
+        <v>0.9995657892479185</v>
+      </c>
+      <c r="R27">
+        <v>0.9998371753506075</v>
+      </c>
+      <c r="S27">
+        <v>0.9998371753506075</v>
+      </c>
+      <c r="T27">
+        <v>0.9999421083140069</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9998205841901959</v>
+      </c>
+      <c r="D28">
+        <v>1.000717672396648</v>
+      </c>
+      <c r="E28">
+        <v>1.000717672396648</v>
+      </c>
+      <c r="F28">
+        <v>0.9998205841901959</v>
+      </c>
+      <c r="G28">
+        <v>0.9998205841901959</v>
+      </c>
+      <c r="H28">
+        <v>0.9995215454331511</v>
+      </c>
+      <c r="I28">
+        <v>1.000394719354505</v>
+      </c>
+      <c r="J28">
+        <v>0.9998205841901959</v>
+      </c>
+      <c r="K28">
+        <v>0.9998205841901959</v>
+      </c>
+      <c r="L28">
+        <v>0.9998205841901959</v>
+      </c>
+      <c r="M28">
+        <v>1.000269128293422</v>
+      </c>
+      <c r="N28">
+        <v>1.000269128293422</v>
+      </c>
+      <c r="O28">
+        <v>1.00031099198045</v>
+      </c>
+      <c r="P28">
+        <v>1.000119613592347</v>
+      </c>
+      <c r="Q28">
+        <v>1.000119613592347</v>
+      </c>
+      <c r="R28">
+        <v>1.000044856241809</v>
+      </c>
+      <c r="S28">
+        <v>1.000044856241809</v>
+      </c>
+      <c r="T28">
+        <v>1.000015948292482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9978151848530901</v>
+      </c>
+      <c r="D29">
+        <v>1.008739226681147</v>
+      </c>
+      <c r="E29">
+        <v>1.008739226681147</v>
+      </c>
+      <c r="F29">
+        <v>0.9978151848530901</v>
+      </c>
+      <c r="G29">
+        <v>0.9978151848530901</v>
+      </c>
+      <c r="H29">
+        <v>0.9941738376901514</v>
+      </c>
+      <c r="I29">
+        <v>1.004806578754361</v>
+      </c>
+      <c r="J29">
+        <v>0.9978151848530901</v>
+      </c>
+      <c r="K29">
+        <v>0.9978151848530901</v>
+      </c>
+      <c r="L29">
+        <v>0.9978151848530901</v>
+      </c>
+      <c r="M29">
+        <v>1.003277205767119</v>
+      </c>
+      <c r="N29">
+        <v>1.003277205767119</v>
+      </c>
+      <c r="O29">
+        <v>1.003786996762866</v>
+      </c>
+      <c r="P29">
+        <v>1.001456532129109</v>
+      </c>
+      <c r="Q29">
+        <v>1.001456532129109</v>
+      </c>
+      <c r="R29">
+        <v>1.000546195310104</v>
+      </c>
+      <c r="S29">
+        <v>1.000546195310104</v>
+      </c>
+      <c r="T29">
+        <v>1.000194199614155</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000567797813404</v>
+        <v>1.001578170946223</v>
       </c>
       <c r="D4">
-        <v>0.9977288036680433</v>
+        <v>0.9936873176358982</v>
       </c>
       <c r="E4">
-        <v>0.9977288036680433</v>
+        <v>0.9936873176358982</v>
       </c>
       <c r="F4">
-        <v>1.000567797813404</v>
+        <v>1.001578170946223</v>
       </c>
       <c r="G4">
-        <v>1.000567797813404</v>
+        <v>1.001578170946223</v>
       </c>
       <c r="H4">
-        <v>1.001514129715999</v>
+        <v>1.004208451999767</v>
       </c>
       <c r="I4">
-        <v>0.9987508416682884</v>
+        <v>0.9965280236989617</v>
       </c>
       <c r="J4">
-        <v>1.000567797813404</v>
+        <v>1.001578170946223</v>
       </c>
       <c r="K4">
-        <v>1.000567797813404</v>
+        <v>1.001578170946223</v>
       </c>
       <c r="L4">
-        <v>1.000567797813404</v>
+        <v>1.001578170946223</v>
       </c>
       <c r="M4">
-        <v>0.9991483007407236</v>
+        <v>0.9976327442910609</v>
       </c>
       <c r="N4">
-        <v>0.9991483007407236</v>
+        <v>0.9976327442910609</v>
       </c>
       <c r="O4">
-        <v>0.9990158143832453</v>
+        <v>0.9972645040936944</v>
       </c>
       <c r="P4">
-        <v>0.9996214664316169</v>
+        <v>0.9989478865094483</v>
       </c>
       <c r="Q4">
-        <v>0.9996214664316169</v>
+        <v>0.9989478865094483</v>
       </c>
       <c r="R4">
-        <v>0.9998580492770637</v>
+        <v>0.9996054576186422</v>
       </c>
       <c r="S4">
-        <v>0.9998580492770637</v>
+        <v>0.9996054576186422</v>
       </c>
       <c r="T4">
-        <v>0.9999495280820904</v>
+        <v>0.9998597176955495</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.001857319142648</v>
+        <v>1.001129103163078</v>
       </c>
       <c r="D5">
-        <v>0.9925707285014431</v>
+        <v>0.9954835666924008</v>
       </c>
       <c r="E5">
-        <v>0.9925707285014431</v>
+        <v>0.9954835666924008</v>
       </c>
       <c r="F5">
-        <v>1.001857319142648</v>
+        <v>1.001129103163078</v>
       </c>
       <c r="G5">
-        <v>1.001857319142648</v>
+        <v>1.001129103163078</v>
       </c>
       <c r="H5">
-        <v>1.004952843832855</v>
+        <v>1.003010956646931</v>
       </c>
       <c r="I5">
-        <v>0.9959138998414964</v>
+        <v>0.9975159687679882</v>
       </c>
       <c r="J5">
-        <v>1.001857319142648</v>
+        <v>1.001129103163078</v>
       </c>
       <c r="K5">
-        <v>1.001857319142648</v>
+        <v>1.001129103163078</v>
       </c>
       <c r="L5">
-        <v>1.001857319142648</v>
+        <v>1.001129103163078</v>
       </c>
       <c r="M5">
-        <v>0.9972140238220456</v>
+        <v>0.9983063349277392</v>
       </c>
       <c r="N5">
-        <v>0.9972140238220456</v>
+        <v>0.9983063349277392</v>
       </c>
       <c r="O5">
-        <v>0.9967806491618626</v>
+        <v>0.9980428795411557</v>
       </c>
       <c r="P5">
-        <v>0.998761788928913</v>
+        <v>0.9992472576728521</v>
       </c>
       <c r="Q5">
-        <v>0.998761788928913</v>
+        <v>0.9992472576728521</v>
       </c>
       <c r="R5">
-        <v>0.9995356714823468</v>
+        <v>0.9997177190454085</v>
       </c>
       <c r="S5">
-        <v>0.9995356714823468</v>
+        <v>0.9997177190454085</v>
       </c>
       <c r="T5">
-        <v>0.9998349049339564</v>
+        <v>0.9998996335994256</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.006232519984409</v>
+        <v>1.000567797813404</v>
       </c>
       <c r="D6">
-        <v>0.9750699954932591</v>
+        <v>0.9977288036680433</v>
       </c>
       <c r="E6">
-        <v>0.9750699954932591</v>
+        <v>0.9977288036680433</v>
       </c>
       <c r="F6">
-        <v>1.006232519984409</v>
+        <v>1.000567797813404</v>
       </c>
       <c r="G6">
-        <v>1.006232519984409</v>
+        <v>1.000567797813404</v>
       </c>
       <c r="H6">
-        <v>1.016619985084482</v>
+        <v>1.001514129715999</v>
       </c>
       <c r="I6">
-        <v>0.9862884956426564</v>
+        <v>0.9987508416682884</v>
       </c>
       <c r="J6">
-        <v>1.006232519984409</v>
+        <v>1.000567797813404</v>
       </c>
       <c r="K6">
-        <v>1.006232519984409</v>
+        <v>1.000567797813404</v>
       </c>
       <c r="L6">
-        <v>1.006232519984409</v>
+        <v>1.000567797813404</v>
       </c>
       <c r="M6">
-        <v>0.9906512577388339</v>
+        <v>0.9991483007407236</v>
       </c>
       <c r="N6">
-        <v>0.9906512577388339</v>
+        <v>0.9991483007407236</v>
       </c>
       <c r="O6">
-        <v>0.9891970037067748</v>
+        <v>0.9990158143832453</v>
       </c>
       <c r="P6">
-        <v>0.9958450118206921</v>
+        <v>0.9996214664316169</v>
       </c>
       <c r="Q6">
-        <v>0.9958450118206921</v>
+        <v>0.9996214664316169</v>
       </c>
       <c r="R6">
-        <v>0.9984418888616212</v>
+        <v>0.9998580492770637</v>
       </c>
       <c r="S6">
-        <v>0.9984418888616212</v>
+        <v>0.9998580492770637</v>
       </c>
       <c r="T6">
-        <v>0.9994460060289372</v>
+        <v>0.9999495280820904</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000194353510354</v>
+        <v>1.001857319142648</v>
       </c>
       <c r="D7">
-        <v>0.999222583875949</v>
+        <v>0.9925707285014431</v>
       </c>
       <c r="E7">
-        <v>0.999222583875949</v>
+        <v>0.9925707285014431</v>
       </c>
       <c r="F7">
-        <v>1.000194353510354</v>
+        <v>1.001857319142648</v>
       </c>
       <c r="G7">
-        <v>1.000194353510354</v>
+        <v>1.001857319142648</v>
       </c>
       <c r="H7">
-        <v>1.000518275651999</v>
+        <v>1.004952843832855</v>
       </c>
       <c r="I7">
-        <v>0.999572420773546</v>
+        <v>0.9959138998414964</v>
       </c>
       <c r="J7">
-        <v>1.000194353510354</v>
+        <v>1.001857319142648</v>
       </c>
       <c r="K7">
-        <v>1.000194353510354</v>
+        <v>1.001857319142648</v>
       </c>
       <c r="L7">
-        <v>1.000194353510354</v>
+        <v>1.001857319142648</v>
       </c>
       <c r="M7">
-        <v>0.9997084686931516</v>
+        <v>0.9972140238220456</v>
       </c>
       <c r="N7">
-        <v>0.9997084686931516</v>
+        <v>0.9972140238220456</v>
       </c>
       <c r="O7">
-        <v>0.9996631193866164</v>
+        <v>0.9967806491618626</v>
       </c>
       <c r="P7">
-        <v>0.9998704302988858</v>
+        <v>0.998761788928913</v>
       </c>
       <c r="Q7">
-        <v>0.9998704302988858</v>
+        <v>0.998761788928913</v>
       </c>
       <c r="R7">
-        <v>0.9999514111017529</v>
+        <v>0.9995356714823468</v>
       </c>
       <c r="S7">
-        <v>0.9999514111017529</v>
+        <v>0.9995356714823468</v>
       </c>
       <c r="T7">
-        <v>0.9999827234720927</v>
+        <v>0.9998349049339564</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000015527383392</v>
+        <v>1.006232519984409</v>
       </c>
       <c r="D8">
-        <v>0.9999378873894239</v>
+        <v>0.9750699954932591</v>
       </c>
       <c r="E8">
-        <v>0.9999378873894239</v>
+        <v>0.9750699954932591</v>
       </c>
       <c r="F8">
-        <v>1.000015527383392</v>
+        <v>1.006232519984409</v>
       </c>
       <c r="G8">
-        <v>1.000015527383392</v>
+        <v>1.006232519984409</v>
       </c>
       <c r="H8">
-        <v>1.000041406958194</v>
+        <v>1.016619985084482</v>
       </c>
       <c r="I8">
-        <v>0.9999658369646389</v>
+        <v>0.9862884956426564</v>
       </c>
       <c r="J8">
-        <v>1.000015527383392</v>
+        <v>1.006232519984409</v>
       </c>
       <c r="K8">
-        <v>1.000015527383392</v>
+        <v>1.006232519984409</v>
       </c>
       <c r="L8">
-        <v>1.000015527383392</v>
+        <v>1.006232519984409</v>
       </c>
       <c r="M8">
-        <v>0.9999767073864076</v>
+        <v>0.9906512577388339</v>
       </c>
       <c r="N8">
-        <v>0.9999767073864076</v>
+        <v>0.9906512577388339</v>
       </c>
       <c r="O8">
-        <v>0.9999730839124847</v>
+        <v>0.9891970037067748</v>
       </c>
       <c r="P8">
-        <v>0.9999896473854023</v>
+        <v>0.9958450118206921</v>
       </c>
       <c r="Q8">
-        <v>0.9999896473854023</v>
+        <v>0.9958450118206921</v>
       </c>
       <c r="R8">
-        <v>0.9999961173848996</v>
+        <v>0.9984418888616212</v>
       </c>
       <c r="S8">
-        <v>0.9999961173848996</v>
+        <v>0.9984418888616212</v>
       </c>
       <c r="T8">
-        <v>0.9999986189104052</v>
+        <v>0.9994460060289372</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000342783785597</v>
+        <v>1.000194353510354</v>
       </c>
       <c r="D9">
-        <v>0.9986288646218171</v>
+        <v>0.999222583875949</v>
       </c>
       <c r="E9">
-        <v>0.9986288646218171</v>
+        <v>0.999222583875949</v>
       </c>
       <c r="F9">
-        <v>1.000342783785597</v>
+        <v>1.000194353510354</v>
       </c>
       <c r="G9">
-        <v>1.000342783785597</v>
+        <v>1.000194353510354</v>
       </c>
       <c r="H9">
-        <v>1.00091408876045</v>
+        <v>1.000518275651999</v>
       </c>
       <c r="I9">
-        <v>0.9992458762923303</v>
+        <v>0.999572420773546</v>
       </c>
       <c r="J9">
-        <v>1.000342783785597</v>
+        <v>1.000194353510354</v>
       </c>
       <c r="K9">
-        <v>1.000342783785597</v>
+        <v>1.000194353510354</v>
       </c>
       <c r="L9">
-        <v>1.000342783785597</v>
+        <v>1.000194353510354</v>
       </c>
       <c r="M9">
-        <v>0.9994858242037071</v>
+        <v>0.9997084686931516</v>
       </c>
       <c r="N9">
-        <v>0.9994858242037071</v>
+        <v>0.9997084686931516</v>
       </c>
       <c r="O9">
-        <v>0.9994058415665815</v>
+        <v>0.9996631193866164</v>
       </c>
       <c r="P9">
-        <v>0.9997714773976704</v>
+        <v>0.9998704302988858</v>
       </c>
       <c r="Q9">
-        <v>0.9997714773976704</v>
+        <v>0.9998704302988858</v>
       </c>
       <c r="R9">
-        <v>0.9999143039946521</v>
+        <v>0.9999514111017529</v>
       </c>
       <c r="S9">
-        <v>0.9999143039946521</v>
+        <v>0.9999514111017529</v>
       </c>
       <c r="T9">
-        <v>0.9999695301718982</v>
+        <v>0.9999827234720927</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00632531307852</v>
+        <v>1.000015527383392</v>
       </c>
       <c r="D10">
-        <v>0.9746988245687764</v>
+        <v>0.9999378873894239</v>
       </c>
       <c r="E10">
-        <v>0.9746988245687764</v>
+        <v>0.9999378873894239</v>
       </c>
       <c r="F10">
-        <v>1.00632531307852</v>
+        <v>1.000015527383392</v>
       </c>
       <c r="G10">
-        <v>1.00632531307852</v>
+        <v>1.000015527383392</v>
       </c>
       <c r="H10">
-        <v>1.016867431552533</v>
+        <v>1.000041406958194</v>
       </c>
       <c r="I10">
-        <v>0.9860843516663322</v>
+        <v>0.9999658369646389</v>
       </c>
       <c r="J10">
-        <v>1.00632531307852</v>
+        <v>1.000015527383392</v>
       </c>
       <c r="K10">
-        <v>1.00632531307852</v>
+        <v>1.000015527383392</v>
       </c>
       <c r="L10">
-        <v>1.00632531307852</v>
+        <v>1.000015527383392</v>
       </c>
       <c r="M10">
-        <v>0.9905120688236483</v>
+        <v>0.9999767073864076</v>
       </c>
       <c r="N10">
-        <v>0.9905120688236483</v>
+        <v>0.9999767073864076</v>
       </c>
       <c r="O10">
-        <v>0.9890361631045429</v>
+        <v>0.9999730839124847</v>
       </c>
       <c r="P10">
-        <v>0.9957831502419389</v>
+        <v>0.9999896473854023</v>
       </c>
       <c r="Q10">
-        <v>0.9957831502419389</v>
+        <v>0.9999896473854023</v>
       </c>
       <c r="R10">
-        <v>0.9984186909510842</v>
+        <v>0.9999961173848996</v>
       </c>
       <c r="S10">
-        <v>0.9984186909510842</v>
+        <v>0.9999961173848996</v>
       </c>
       <c r="T10">
-        <v>0.9994377578372003</v>
+        <v>0.9999986189104052</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001037192160296</v>
+        <v>1.000342783785597</v>
       </c>
       <c r="D11">
-        <v>0.9958512291428387</v>
+        <v>0.9986288646218171</v>
       </c>
       <c r="E11">
-        <v>0.9958512291428387</v>
+        <v>0.9986288646218171</v>
       </c>
       <c r="F11">
-        <v>1.001037192160296</v>
+        <v>1.000342783785597</v>
       </c>
       <c r="G11">
-        <v>1.001037192160296</v>
+        <v>1.000342783785597</v>
       </c>
       <c r="H11">
-        <v>1.002765847064814</v>
+        <v>1.00091408876045</v>
       </c>
       <c r="I11">
-        <v>0.9977181751318878</v>
+        <v>0.9992458762923303</v>
       </c>
       <c r="J11">
-        <v>1.001037192160296</v>
+        <v>1.000342783785597</v>
       </c>
       <c r="K11">
-        <v>1.001037192160296</v>
+        <v>1.000342783785597</v>
       </c>
       <c r="L11">
-        <v>1.001037192160296</v>
+        <v>1.000342783785597</v>
       </c>
       <c r="M11">
-        <v>0.9984442106515675</v>
+        <v>0.9994858242037071</v>
       </c>
       <c r="N11">
-        <v>0.9984442106515675</v>
+        <v>0.9994858242037071</v>
       </c>
       <c r="O11">
-        <v>0.9982021988116743</v>
+        <v>0.9994058415665815</v>
       </c>
       <c r="P11">
-        <v>0.9993085378211438</v>
+        <v>0.9997714773976704</v>
       </c>
       <c r="Q11">
-        <v>0.9993085378211438</v>
+        <v>0.9997714773976704</v>
       </c>
       <c r="R11">
-        <v>0.999740701405932</v>
+        <v>0.9999143039946521</v>
       </c>
       <c r="S11">
-        <v>0.999740701405932</v>
+        <v>0.9999143039946521</v>
       </c>
       <c r="T11">
-        <v>0.9999078046367383</v>
+        <v>0.9999695301718982</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.001915866915787</v>
+        <v>1.00632531307852</v>
       </c>
       <c r="D12">
-        <v>0.9923365413894735</v>
+        <v>0.9746988245687764</v>
       </c>
       <c r="E12">
-        <v>0.9923365413894735</v>
+        <v>0.9746988245687764</v>
       </c>
       <c r="F12">
-        <v>1.001915866915787</v>
+        <v>1.00632531307852</v>
       </c>
       <c r="G12">
-        <v>1.001915866915787</v>
+        <v>1.00632531307852</v>
       </c>
       <c r="H12">
-        <v>1.005108967452633</v>
+        <v>1.016867431552533</v>
       </c>
       <c r="I12">
-        <v>0.9957850963999977</v>
+        <v>0.9860843516663322</v>
       </c>
       <c r="J12">
-        <v>1.001915866915787</v>
+        <v>1.00632531307852</v>
       </c>
       <c r="K12">
-        <v>1.001915866915787</v>
+        <v>1.00632531307852</v>
       </c>
       <c r="L12">
-        <v>1.001915866915787</v>
+        <v>1.00632531307852</v>
       </c>
       <c r="M12">
-        <v>0.9971262041526301</v>
+        <v>0.9905120688236483</v>
       </c>
       <c r="N12">
-        <v>0.9971262041526301</v>
+        <v>0.9905120688236483</v>
       </c>
       <c r="O12">
-        <v>0.9966791682350861</v>
+        <v>0.9890361631045429</v>
       </c>
       <c r="P12">
-        <v>0.9987227584070156</v>
+        <v>0.9957831502419389</v>
       </c>
       <c r="Q12">
-        <v>0.9987227584070156</v>
+        <v>0.9957831502419389</v>
       </c>
       <c r="R12">
-        <v>0.9995210355342083</v>
+        <v>0.9984186909510842</v>
       </c>
       <c r="S12">
-        <v>0.9995210355342083</v>
+        <v>0.9984186909510842</v>
       </c>
       <c r="T12">
-        <v>0.999829700998244</v>
+        <v>0.9994377578372003</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9987559804025474</v>
+        <v>1.001037192160296</v>
       </c>
       <c r="D13">
-        <v>1.004976076220032</v>
+        <v>0.9958512291428387</v>
       </c>
       <c r="E13">
-        <v>1.004976076220032</v>
+        <v>0.9958512291428387</v>
       </c>
       <c r="F13">
-        <v>0.9987559804025474</v>
+        <v>1.001037192160296</v>
       </c>
       <c r="G13">
-        <v>0.9987559804025474</v>
+        <v>1.001037192160296</v>
       </c>
       <c r="H13">
-        <v>0.9966826144240827</v>
+        <v>1.002765847064814</v>
       </c>
       <c r="I13">
-        <v>1.002736840066385</v>
+        <v>0.9977181751318878</v>
       </c>
       <c r="J13">
-        <v>0.9987559804025474</v>
+        <v>1.001037192160296</v>
       </c>
       <c r="K13">
-        <v>0.9987559804025474</v>
+        <v>1.001037192160296</v>
       </c>
       <c r="L13">
-        <v>0.9987559804025474</v>
+        <v>1.001037192160296</v>
       </c>
       <c r="M13">
-        <v>1.00186602831129</v>
+        <v>0.9984442106515675</v>
       </c>
       <c r="N13">
-        <v>1.00186602831129</v>
+        <v>0.9984442106515675</v>
       </c>
       <c r="O13">
-        <v>1.002156298896321</v>
+        <v>0.9982021988116743</v>
       </c>
       <c r="P13">
-        <v>1.000829345675042</v>
+        <v>0.9993085378211438</v>
       </c>
       <c r="Q13">
-        <v>1.000829345675042</v>
+        <v>0.9993085378211438</v>
       </c>
       <c r="R13">
-        <v>1.000311004356919</v>
+        <v>0.999740701405932</v>
       </c>
       <c r="S13">
-        <v>1.000311004356919</v>
+        <v>0.999740701405932</v>
       </c>
       <c r="T13">
-        <v>1.000110578653024</v>
+        <v>0.9999078046367383</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.010928300000002</v>
+        <v>1.001915866915787</v>
       </c>
       <c r="D14">
-        <v>0.9562869499999996</v>
+        <v>0.9923365413894735</v>
       </c>
       <c r="E14">
-        <v>0.9562869499999996</v>
+        <v>0.9923365413894735</v>
       </c>
       <c r="F14">
-        <v>1.010928300000002</v>
+        <v>1.001915866915787</v>
       </c>
       <c r="G14">
-        <v>1.010928300000002</v>
+        <v>1.001915866915787</v>
       </c>
       <c r="H14">
-        <v>1.029141999999999</v>
+        <v>1.005108967452633</v>
       </c>
       <c r="I14">
-        <v>0.9759578199999995</v>
+        <v>0.9957850963999977</v>
       </c>
       <c r="J14">
-        <v>1.010928300000002</v>
+        <v>1.001915866915787</v>
       </c>
       <c r="K14">
-        <v>1.010928300000002</v>
+        <v>1.001915866915787</v>
       </c>
       <c r="L14">
-        <v>1.010928300000002</v>
+        <v>1.001915866915787</v>
       </c>
       <c r="M14">
-        <v>0.9836076250000008</v>
+        <v>0.9971262041526301</v>
       </c>
       <c r="N14">
-        <v>0.9836076250000008</v>
+        <v>0.9971262041526301</v>
       </c>
       <c r="O14">
-        <v>0.9810576900000004</v>
+        <v>0.9966791682350861</v>
       </c>
       <c r="P14">
-        <v>0.9927145166666677</v>
+        <v>0.9987227584070156</v>
       </c>
       <c r="Q14">
-        <v>0.9927145166666677</v>
+        <v>0.9987227584070156</v>
       </c>
       <c r="R14">
-        <v>0.9972679625000012</v>
+        <v>0.9995210355342083</v>
       </c>
       <c r="S14">
-        <v>0.9972679625000012</v>
+        <v>0.9995210355342083</v>
       </c>
       <c r="T14">
-        <v>0.9990286116666672</v>
+        <v>0.999829700998244</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9998579199999998</v>
+        <v>0.9987559804025474</v>
       </c>
       <c r="D15">
-        <v>1.0005683</v>
+        <v>1.004976076220032</v>
       </c>
       <c r="E15">
-        <v>1.0005683</v>
+        <v>1.004976076220032</v>
       </c>
       <c r="F15">
-        <v>0.9998579199999998</v>
+        <v>0.9987559804025474</v>
       </c>
       <c r="G15">
-        <v>0.9998579199999998</v>
+        <v>0.9987559804025474</v>
       </c>
       <c r="H15">
-        <v>0.99962112</v>
+        <v>0.9966826144240827</v>
       </c>
       <c r="I15">
-        <v>1.0003126</v>
+        <v>1.002736840066385</v>
       </c>
       <c r="J15">
-        <v>0.9998579199999998</v>
+        <v>0.9987559804025474</v>
       </c>
       <c r="K15">
-        <v>0.9998579199999998</v>
+        <v>0.9987559804025474</v>
       </c>
       <c r="L15">
-        <v>0.9998579199999998</v>
+        <v>0.9987559804025474</v>
       </c>
       <c r="M15">
-        <v>1.00021311</v>
+        <v>1.00186602831129</v>
       </c>
       <c r="N15">
-        <v>1.00021311</v>
+        <v>1.00186602831129</v>
       </c>
       <c r="O15">
-        <v>1.000246273333333</v>
+        <v>1.002156298896321</v>
       </c>
       <c r="P15">
-        <v>1.000094713333333</v>
+        <v>1.000829345675042</v>
       </c>
       <c r="Q15">
-        <v>1.000094713333333</v>
+        <v>1.000829345675042</v>
       </c>
       <c r="R15">
-        <v>1.000035515</v>
+        <v>1.000311004356919</v>
       </c>
       <c r="S15">
-        <v>1.000035515</v>
+        <v>1.000311004356919</v>
       </c>
       <c r="T15">
-        <v>1.00001263</v>
+        <v>1.000110578653024</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0042979</v>
+        <v>1.010928300000002</v>
       </c>
       <c r="D16">
-        <v>0.98280841</v>
+        <v>0.9562869499999996</v>
       </c>
       <c r="E16">
-        <v>0.98280841</v>
+        <v>0.9562869499999996</v>
       </c>
       <c r="F16">
-        <v>1.0042979</v>
+        <v>1.010928300000002</v>
       </c>
       <c r="G16">
-        <v>1.0042979</v>
+        <v>1.010928300000002</v>
       </c>
       <c r="H16">
-        <v>1.0114611</v>
+        <v>1.029141999999999</v>
       </c>
       <c r="I16">
-        <v>0.99054463</v>
+        <v>0.9759578199999995</v>
       </c>
       <c r="J16">
-        <v>1.0042979</v>
+        <v>1.010928300000002</v>
       </c>
       <c r="K16">
-        <v>1.0042979</v>
+        <v>1.010928300000002</v>
       </c>
       <c r="L16">
-        <v>1.0042979</v>
+        <v>1.010928300000002</v>
       </c>
       <c r="M16">
-        <v>0.9935531550000001</v>
+        <v>0.9836076250000008</v>
       </c>
       <c r="N16">
-        <v>0.9935531550000001</v>
+        <v>0.9836076250000008</v>
       </c>
       <c r="O16">
-        <v>0.9925503133333334</v>
+        <v>0.9810576900000004</v>
       </c>
       <c r="P16">
-        <v>0.9971347366666667</v>
+        <v>0.9927145166666677</v>
       </c>
       <c r="Q16">
-        <v>0.9971347366666667</v>
+        <v>0.9927145166666677</v>
       </c>
       <c r="R16">
-        <v>0.9989255275000001</v>
+        <v>0.9972679625000012</v>
       </c>
       <c r="S16">
-        <v>0.9989255275000001</v>
+        <v>0.9972679625000012</v>
       </c>
       <c r="T16">
-        <v>0.9996179733333334</v>
+        <v>0.9990286116666672</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99445595</v>
+        <v>0.9998579199999998</v>
       </c>
       <c r="D17">
-        <v>1.0221762</v>
+        <v>1.0005683</v>
       </c>
       <c r="E17">
-        <v>1.0221762</v>
+        <v>1.0005683</v>
       </c>
       <c r="F17">
-        <v>0.99445595</v>
+        <v>0.9998579199999998</v>
       </c>
       <c r="G17">
-        <v>0.99445595</v>
+        <v>0.9998579199999998</v>
       </c>
       <c r="H17">
-        <v>0.9852158599999999</v>
+        <v>0.99962112</v>
       </c>
       <c r="I17">
-        <v>1.0121969</v>
+        <v>1.0003126</v>
       </c>
       <c r="J17">
-        <v>0.99445595</v>
+        <v>0.9998579199999998</v>
       </c>
       <c r="K17">
-        <v>0.99445595</v>
+        <v>0.9998579199999998</v>
       </c>
       <c r="L17">
-        <v>0.99445595</v>
+        <v>0.9998579199999998</v>
       </c>
       <c r="M17">
-        <v>1.008316075</v>
+        <v>1.00021311</v>
       </c>
       <c r="N17">
-        <v>1.008316075</v>
+        <v>1.00021311</v>
       </c>
       <c r="O17">
-        <v>1.009609683333333</v>
+        <v>1.000246273333333</v>
       </c>
       <c r="P17">
-        <v>1.003696033333333</v>
+        <v>1.000094713333333</v>
       </c>
       <c r="Q17">
-        <v>1.003696033333333</v>
+        <v>1.000094713333333</v>
       </c>
       <c r="R17">
-        <v>1.0013860125</v>
+        <v>1.000035515</v>
       </c>
       <c r="S17">
-        <v>1.0013860125</v>
+        <v>1.000035515</v>
       </c>
       <c r="T17">
-        <v>1.000492801666667</v>
+        <v>1.00001263</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.004040021369863</v>
+        <v>1.0042979</v>
       </c>
       <c r="D18">
-        <v>0.9838399424657532</v>
+        <v>0.98280841</v>
       </c>
       <c r="E18">
-        <v>0.9838399424657532</v>
+        <v>0.98280841</v>
       </c>
       <c r="F18">
-        <v>1.004040021369863</v>
+        <v>1.0042979</v>
       </c>
       <c r="G18">
-        <v>1.004040021369863</v>
+        <v>1.0042979</v>
       </c>
       <c r="H18">
-        <v>1.010773363835616</v>
+        <v>1.0114611</v>
       </c>
       <c r="I18">
-        <v>0.991111970684932</v>
+        <v>0.99054463</v>
       </c>
       <c r="J18">
-        <v>1.004040021369863</v>
+        <v>1.0042979</v>
       </c>
       <c r="K18">
-        <v>1.004040021369863</v>
+        <v>1.0042979</v>
       </c>
       <c r="L18">
-        <v>1.004040021369863</v>
+        <v>1.0042979</v>
       </c>
       <c r="M18">
-        <v>0.9939399819178081</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N18">
-        <v>0.9939399819178081</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O18">
-        <v>0.9929973115068494</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P18">
-        <v>0.9973066617351597</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q18">
-        <v>0.9973066617351597</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R18">
-        <v>0.9989900016438356</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S18">
-        <v>0.9989900016438356</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T18">
-        <v>0.9996408901826483</v>
+        <v>0.9996179733333334</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000350206842105</v>
+        <v>0.99445595</v>
       </c>
       <c r="D19">
-        <v>0.9985991510526316</v>
+        <v>1.0221762</v>
       </c>
       <c r="E19">
-        <v>0.9985991510526316</v>
+        <v>1.0221762</v>
       </c>
       <c r="F19">
-        <v>1.000350206842105</v>
+        <v>0.99445595</v>
       </c>
       <c r="G19">
-        <v>1.000350206842105</v>
+        <v>0.99445595</v>
       </c>
       <c r="H19">
-        <v>1.000933897894737</v>
+        <v>0.9852158599999999</v>
       </c>
       <c r="I19">
-        <v>0.999229532631579</v>
+        <v>1.0121969</v>
       </c>
       <c r="J19">
-        <v>1.000350206842105</v>
+        <v>0.99445595</v>
       </c>
       <c r="K19">
-        <v>1.000350206842105</v>
+        <v>0.99445595</v>
       </c>
       <c r="L19">
-        <v>1.000350206842105</v>
+        <v>0.99445595</v>
       </c>
       <c r="M19">
-        <v>0.9994746789473685</v>
+        <v>1.008316075</v>
       </c>
       <c r="N19">
-        <v>0.9994746789473685</v>
+        <v>1.008316075</v>
       </c>
       <c r="O19">
-        <v>0.999392963508772</v>
+        <v>1.009609683333333</v>
       </c>
       <c r="P19">
-        <v>0.9997665215789474</v>
+        <v>1.003696033333333</v>
       </c>
       <c r="Q19">
-        <v>0.9997665215789474</v>
+        <v>1.003696033333333</v>
       </c>
       <c r="R19">
-        <v>0.9999124428947369</v>
+        <v>1.0013860125</v>
       </c>
       <c r="S19">
-        <v>0.9999124428947369</v>
+        <v>1.0013860125</v>
       </c>
       <c r="T19">
-        <v>0.9999688670175439</v>
+        <v>1.000492801666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.001810727894737</v>
+        <v>1.004040021369863</v>
       </c>
       <c r="D20">
-        <v>0.9927570742105264</v>
+        <v>0.9838399424657532</v>
       </c>
       <c r="E20">
-        <v>0.9927570742105264</v>
+        <v>0.9838399424657532</v>
       </c>
       <c r="F20">
-        <v>1.001810727894737</v>
+        <v>1.004040021369863</v>
       </c>
       <c r="G20">
-        <v>1.001810727894737</v>
+        <v>1.004040021369863</v>
       </c>
       <c r="H20">
-        <v>1.004828616842105</v>
+        <v>1.010773363835616</v>
       </c>
       <c r="I20">
-        <v>0.9960163978947367</v>
+        <v>0.991111970684932</v>
       </c>
       <c r="J20">
-        <v>1.001810727894737</v>
+        <v>1.004040021369863</v>
       </c>
       <c r="K20">
-        <v>1.001810727894737</v>
+        <v>1.004040021369863</v>
       </c>
       <c r="L20">
-        <v>1.001810727894737</v>
+        <v>1.004040021369863</v>
       </c>
       <c r="M20">
-        <v>0.9972839010526318</v>
+        <v>0.9939399819178081</v>
       </c>
       <c r="N20">
-        <v>0.9972839010526318</v>
+        <v>0.9939399819178081</v>
       </c>
       <c r="O20">
-        <v>0.9968614000000001</v>
+        <v>0.9929973115068494</v>
       </c>
       <c r="P20">
-        <v>0.9987928433333334</v>
+        <v>0.9973066617351597</v>
       </c>
       <c r="Q20">
-        <v>0.9987928433333334</v>
+        <v>0.9973066617351597</v>
       </c>
       <c r="R20">
-        <v>0.9995473144736844</v>
+        <v>0.9989900016438356</v>
       </c>
       <c r="S20">
-        <v>0.9995473144736844</v>
+        <v>0.9989900016438356</v>
       </c>
       <c r="T20">
-        <v>0.9998390454385966</v>
+        <v>0.9996408901826483</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9962934937700573</v>
+        <v>1.000350206842105</v>
       </c>
       <c r="D21">
-        <v>1.014826042801522</v>
+        <v>0.9985991510526316</v>
       </c>
       <c r="E21">
-        <v>1.014826042801522</v>
+        <v>0.9985991510526316</v>
       </c>
       <c r="F21">
-        <v>0.9962934937700573</v>
+        <v>1.000350206842105</v>
       </c>
       <c r="G21">
-        <v>0.9962934937700573</v>
+        <v>1.000350206842105</v>
       </c>
       <c r="H21">
-        <v>0.9901159739531828</v>
+        <v>1.000933897894737</v>
       </c>
       <c r="I21">
-        <v>1.008154316900208</v>
+        <v>0.999229532631579</v>
       </c>
       <c r="J21">
-        <v>0.9962934937700573</v>
+        <v>1.000350206842105</v>
       </c>
       <c r="K21">
-        <v>0.9962934937700573</v>
+        <v>1.000350206842105</v>
       </c>
       <c r="L21">
-        <v>0.9962934937700573</v>
+        <v>1.000350206842105</v>
       </c>
       <c r="M21">
-        <v>1.00555976828579</v>
+        <v>0.9994746789473685</v>
       </c>
       <c r="N21">
-        <v>1.00555976828579</v>
+        <v>0.9994746789473685</v>
       </c>
       <c r="O21">
-        <v>1.006424617823929</v>
+        <v>0.999392963508772</v>
       </c>
       <c r="P21">
-        <v>1.002471010113879</v>
+        <v>0.9997665215789474</v>
       </c>
       <c r="Q21">
-        <v>1.002471010113879</v>
+        <v>0.9997665215789474</v>
       </c>
       <c r="R21">
-        <v>1.000926631027923</v>
+        <v>0.9999124428947369</v>
       </c>
       <c r="S21">
-        <v>1.000926631027923</v>
+        <v>0.9999124428947369</v>
       </c>
       <c r="T21">
-        <v>1.000329469160848</v>
+        <v>0.9999688670175439</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9990232498566435</v>
+        <v>1.001810727894737</v>
       </c>
       <c r="D22">
-        <v>1.003907008956704</v>
+        <v>0.9927570742105264</v>
       </c>
       <c r="E22">
-        <v>1.003907008956704</v>
+        <v>0.9927570742105264</v>
       </c>
       <c r="F22">
-        <v>0.9990232498566435</v>
+        <v>1.001810727894737</v>
       </c>
       <c r="G22">
-        <v>0.9990232498566435</v>
+        <v>1.001810727894737</v>
       </c>
       <c r="H22">
-        <v>0.9973953295656443</v>
+        <v>1.004828616842105</v>
       </c>
       <c r="I22">
-        <v>1.002148852977154</v>
+        <v>0.9960163978947367</v>
       </c>
       <c r="J22">
-        <v>0.9990232498566435</v>
+        <v>1.001810727894737</v>
       </c>
       <c r="K22">
-        <v>0.9990232498566435</v>
+        <v>1.001810727894737</v>
       </c>
       <c r="L22">
-        <v>0.9990232498566435</v>
+        <v>1.001810727894737</v>
       </c>
       <c r="M22">
-        <v>1.001465129406674</v>
+        <v>0.9972839010526318</v>
       </c>
       <c r="N22">
-        <v>1.001465129406674</v>
+        <v>0.9972839010526318</v>
       </c>
       <c r="O22">
-        <v>1.0016930372635</v>
+        <v>0.9968614000000001</v>
       </c>
       <c r="P22">
-        <v>1.000651169556664</v>
+        <v>0.9987928433333334</v>
       </c>
       <c r="Q22">
-        <v>1.000651169556664</v>
+        <v>0.9987928433333334</v>
       </c>
       <c r="R22">
-        <v>1.000244189631659</v>
+        <v>0.9995473144736844</v>
       </c>
       <c r="S22">
-        <v>1.000244189631659</v>
+        <v>0.9995473144736844</v>
       </c>
       <c r="T22">
-        <v>1.000086823511572</v>
+        <v>0.9998390454385966</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9987391737253933</v>
+        <v>0.9962934937700573</v>
       </c>
       <c r="D23">
-        <v>1.005043288796453</v>
+        <v>1.014826042801522</v>
       </c>
       <c r="E23">
-        <v>1.005043288796453</v>
+        <v>1.014826042801522</v>
       </c>
       <c r="F23">
-        <v>0.9987391737253933</v>
+        <v>0.9962934937700573</v>
       </c>
       <c r="G23">
-        <v>0.9987391737253933</v>
+        <v>0.9962934937700573</v>
       </c>
       <c r="H23">
-        <v>0.9966378058231855</v>
+        <v>0.9901159739531828</v>
       </c>
       <c r="I23">
-        <v>1.002773808974117</v>
+        <v>1.008154316900208</v>
       </c>
       <c r="J23">
-        <v>0.9987391737253933</v>
+        <v>0.9962934937700573</v>
       </c>
       <c r="K23">
-        <v>0.9987391737253933</v>
+        <v>0.9962934937700573</v>
       </c>
       <c r="L23">
-        <v>0.9987391737253933</v>
+        <v>0.9962934937700573</v>
       </c>
       <c r="M23">
-        <v>1.001891231260923</v>
+        <v>1.00555976828579</v>
       </c>
       <c r="N23">
-        <v>1.001891231260923</v>
+        <v>1.00555976828579</v>
       </c>
       <c r="O23">
-        <v>1.002185423831988</v>
+        <v>1.006424617823929</v>
       </c>
       <c r="P23">
-        <v>1.000840545415747</v>
+        <v>1.002471010113879</v>
       </c>
       <c r="Q23">
-        <v>1.000840545415747</v>
+        <v>1.002471010113879</v>
       </c>
       <c r="R23">
-        <v>1.000315202493158</v>
+        <v>1.000926631027923</v>
       </c>
       <c r="S23">
-        <v>1.000315202493158</v>
+        <v>1.000926631027923</v>
       </c>
       <c r="T23">
-        <v>1.000112070794989</v>
+        <v>1.000329469160848</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9996748642246595</v>
+        <v>0.9990232498566435</v>
       </c>
       <c r="D24">
-        <v>1.001300539080104</v>
+        <v>1.003907008956704</v>
       </c>
       <c r="E24">
-        <v>1.001300539080104</v>
+        <v>1.003907008956704</v>
       </c>
       <c r="F24">
-        <v>0.9996748642246595</v>
+        <v>0.9990232498566435</v>
       </c>
       <c r="G24">
-        <v>0.9996748642246595</v>
+        <v>0.9990232498566435</v>
       </c>
       <c r="H24">
-        <v>0.9991329731329355</v>
+        <v>0.9973953295656443</v>
       </c>
       <c r="I24">
-        <v>1.000715292336611</v>
+        <v>1.002148852977154</v>
       </c>
       <c r="J24">
-        <v>0.9996748642246595</v>
+        <v>0.9990232498566435</v>
       </c>
       <c r="K24">
-        <v>0.9996748642246595</v>
+        <v>0.9990232498566435</v>
       </c>
       <c r="L24">
-        <v>0.9996748642246595</v>
+        <v>0.9990232498566435</v>
       </c>
       <c r="M24">
-        <v>1.000487701652382</v>
+        <v>1.001465129406674</v>
       </c>
       <c r="N24">
-        <v>1.000487701652382</v>
+        <v>1.001465129406674</v>
       </c>
       <c r="O24">
-        <v>1.000563565213792</v>
+        <v>1.0016930372635</v>
       </c>
       <c r="P24">
-        <v>1.000216755843141</v>
+        <v>1.000651169556664</v>
       </c>
       <c r="Q24">
-        <v>1.000216755843141</v>
+        <v>1.000651169556664</v>
       </c>
       <c r="R24">
-        <v>1.000081282938521</v>
+        <v>1.000244189631659</v>
       </c>
       <c r="S24">
-        <v>1.000081282938521</v>
+        <v>1.000244189631659</v>
       </c>
       <c r="T24">
-        <v>1.000028899537271</v>
+        <v>1.000086823511572</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.000499659344631</v>
+        <v>0.9987391737253933</v>
       </c>
       <c r="D25">
-        <v>0.9980013535098498</v>
+        <v>1.005043288796453</v>
       </c>
       <c r="E25">
-        <v>0.9980013535098498</v>
+        <v>1.005043288796453</v>
       </c>
       <c r="F25">
-        <v>1.000499659344631</v>
+        <v>0.9987391737253933</v>
       </c>
       <c r="G25">
-        <v>1.000499659344631</v>
+        <v>0.9987391737253933</v>
       </c>
       <c r="H25">
-        <v>1.001332431797675</v>
+        <v>0.9966378058231855</v>
       </c>
       <c r="I25">
-        <v>0.998900737278186</v>
+        <v>1.002773808974117</v>
       </c>
       <c r="J25">
-        <v>1.000499659344631</v>
+        <v>0.9987391737253933</v>
       </c>
       <c r="K25">
-        <v>1.000499659344631</v>
+        <v>0.9987391737253933</v>
       </c>
       <c r="L25">
-        <v>1.000499659344631</v>
+        <v>0.9987391737253933</v>
       </c>
       <c r="M25">
-        <v>0.9992505064272403</v>
+        <v>1.001891231260923</v>
       </c>
       <c r="N25">
-        <v>0.9992505064272403</v>
+        <v>1.001891231260923</v>
       </c>
       <c r="O25">
-        <v>0.9991339167108889</v>
+        <v>1.002185423831988</v>
       </c>
       <c r="P25">
-        <v>0.9996668907330372</v>
+        <v>1.000840545415747</v>
       </c>
       <c r="Q25">
-        <v>0.9996668907330372</v>
+        <v>1.000840545415747</v>
       </c>
       <c r="R25">
-        <v>0.9998750828859356</v>
+        <v>1.000315202493158</v>
       </c>
       <c r="S25">
-        <v>0.9998750828859356</v>
+        <v>1.000315202493158</v>
       </c>
       <c r="T25">
-        <v>0.9999555834366006</v>
+        <v>1.000112070794989</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000147992962561</v>
+        <v>0.9996748642246595</v>
       </c>
       <c r="D26">
-        <v>0.9994080223133113</v>
+        <v>1.001300539080104</v>
       </c>
       <c r="E26">
-        <v>0.9994080223133113</v>
+        <v>1.001300539080104</v>
       </c>
       <c r="F26">
-        <v>1.000147992962561</v>
+        <v>0.9996748642246595</v>
       </c>
       <c r="G26">
-        <v>1.000147992962561</v>
+        <v>0.9996748642246595</v>
       </c>
       <c r="H26">
-        <v>1.000394652767589</v>
+        <v>0.9991329731329355</v>
       </c>
       <c r="I26">
-        <v>0.9996744073508504</v>
+        <v>1.000715292336611</v>
       </c>
       <c r="J26">
-        <v>1.000147992962561</v>
+        <v>0.9996748642246595</v>
       </c>
       <c r="K26">
-        <v>1.000147992962561</v>
+        <v>0.9996748642246595</v>
       </c>
       <c r="L26">
-        <v>1.000147992962561</v>
+        <v>0.9996748642246595</v>
       </c>
       <c r="M26">
-        <v>0.9997780076379359</v>
+        <v>1.000487701652382</v>
       </c>
       <c r="N26">
-        <v>0.9997780076379359</v>
+        <v>1.000487701652382</v>
       </c>
       <c r="O26">
-        <v>0.9997434742089074</v>
+        <v>1.000563565213792</v>
       </c>
       <c r="P26">
-        <v>0.9999013360794775</v>
+        <v>1.000216755843141</v>
       </c>
       <c r="Q26">
-        <v>0.9999013360794775</v>
+        <v>1.000216755843141</v>
       </c>
       <c r="R26">
-        <v>0.9999630003002482</v>
+        <v>1.000081282938521</v>
       </c>
       <c r="S26">
-        <v>0.9999630003002482</v>
+        <v>1.000081282938521</v>
       </c>
       <c r="T26">
-        <v>0.9999868435532386</v>
+        <v>1.000028899537271</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000651333658675</v>
+        <v>1.000499659344631</v>
       </c>
       <c r="D27">
-        <v>0.9973947004264062</v>
+        <v>0.9980013535098498</v>
       </c>
       <c r="E27">
-        <v>0.9973947004264062</v>
+        <v>0.9980013535098498</v>
       </c>
       <c r="F27">
-        <v>1.000651333658675</v>
+        <v>1.000499659344631</v>
       </c>
       <c r="G27">
-        <v>1.000651333658675</v>
+        <v>1.000499659344631</v>
       </c>
       <c r="H27">
-        <v>1.001736866312104</v>
+        <v>1.001332431797675</v>
       </c>
       <c r="I27">
-        <v>0.9985670821695073</v>
+        <v>0.998900737278186</v>
       </c>
       <c r="J27">
-        <v>1.000651333658675</v>
+        <v>1.000499659344631</v>
       </c>
       <c r="K27">
-        <v>1.000651333658675</v>
+        <v>1.000499659344631</v>
       </c>
       <c r="L27">
-        <v>1.000651333658675</v>
+        <v>1.000499659344631</v>
       </c>
       <c r="M27">
-        <v>0.9990230170425405</v>
+        <v>0.9992505064272403</v>
       </c>
       <c r="N27">
-        <v>0.9990230170425405</v>
+        <v>0.9992505064272403</v>
       </c>
       <c r="O27">
-        <v>0.9988710387515294</v>
+        <v>0.9991339167108889</v>
       </c>
       <c r="P27">
-        <v>0.9995657892479185</v>
+        <v>0.9996668907330372</v>
       </c>
       <c r="Q27">
-        <v>0.9995657892479185</v>
+        <v>0.9996668907330372</v>
       </c>
       <c r="R27">
-        <v>0.9998371753506075</v>
+        <v>0.9998750828859356</v>
       </c>
       <c r="S27">
-        <v>0.9998371753506075</v>
+        <v>0.9998750828859356</v>
       </c>
       <c r="T27">
-        <v>0.9999421083140069</v>
+        <v>0.9999555834366006</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9998205841901959</v>
+        <v>1.000147992962561</v>
       </c>
       <c r="D28">
-        <v>1.000717672396648</v>
+        <v>0.9994080223133113</v>
       </c>
       <c r="E28">
-        <v>1.000717672396648</v>
+        <v>0.9994080223133113</v>
       </c>
       <c r="F28">
-        <v>0.9998205841901959</v>
+        <v>1.000147992962561</v>
       </c>
       <c r="G28">
-        <v>0.9998205841901959</v>
+        <v>1.000147992962561</v>
       </c>
       <c r="H28">
-        <v>0.9995215454331511</v>
+        <v>1.000394652767589</v>
       </c>
       <c r="I28">
-        <v>1.000394719354505</v>
+        <v>0.9996744073508504</v>
       </c>
       <c r="J28">
-        <v>0.9998205841901959</v>
+        <v>1.000147992962561</v>
       </c>
       <c r="K28">
-        <v>0.9998205841901959</v>
+        <v>1.000147992962561</v>
       </c>
       <c r="L28">
-        <v>0.9998205841901959</v>
+        <v>1.000147992962561</v>
       </c>
       <c r="M28">
-        <v>1.000269128293422</v>
+        <v>0.9997780076379359</v>
       </c>
       <c r="N28">
-        <v>1.000269128293422</v>
+        <v>0.9997780076379359</v>
       </c>
       <c r="O28">
-        <v>1.00031099198045</v>
+        <v>0.9997434742089074</v>
       </c>
       <c r="P28">
-        <v>1.000119613592347</v>
+        <v>0.9999013360794775</v>
       </c>
       <c r="Q28">
-        <v>1.000119613592347</v>
+        <v>0.9999013360794775</v>
       </c>
       <c r="R28">
-        <v>1.000044856241809</v>
+        <v>0.9999630003002482</v>
       </c>
       <c r="S28">
-        <v>1.000044856241809</v>
+        <v>0.9999630003002482</v>
       </c>
       <c r="T28">
-        <v>1.000015948292482</v>
+        <v>0.9999868435532386</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000651333658675</v>
+      </c>
+      <c r="D29">
+        <v>0.9973947004264062</v>
+      </c>
+      <c r="E29">
+        <v>0.9973947004264062</v>
+      </c>
+      <c r="F29">
+        <v>1.000651333658675</v>
+      </c>
+      <c r="G29">
+        <v>1.000651333658675</v>
+      </c>
+      <c r="H29">
+        <v>1.001736866312104</v>
+      </c>
+      <c r="I29">
+        <v>0.9985670821695073</v>
+      </c>
+      <c r="J29">
+        <v>1.000651333658675</v>
+      </c>
+      <c r="K29">
+        <v>1.000651333658675</v>
+      </c>
+      <c r="L29">
+        <v>1.000651333658675</v>
+      </c>
+      <c r="M29">
+        <v>0.9990230170425405</v>
+      </c>
+      <c r="N29">
+        <v>0.9990230170425405</v>
+      </c>
+      <c r="O29">
+        <v>0.9988710387515294</v>
+      </c>
+      <c r="P29">
+        <v>0.9995657892479185</v>
+      </c>
+      <c r="Q29">
+        <v>0.9995657892479185</v>
+      </c>
+      <c r="R29">
+        <v>0.9998371753506075</v>
+      </c>
+      <c r="S29">
+        <v>0.9998371753506075</v>
+      </c>
+      <c r="T29">
+        <v>0.9999421083140069</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9998205841901959</v>
+      </c>
+      <c r="D30">
+        <v>1.000717672396648</v>
+      </c>
+      <c r="E30">
+        <v>1.000717672396648</v>
+      </c>
+      <c r="F30">
+        <v>0.9998205841901959</v>
+      </c>
+      <c r="G30">
+        <v>0.9998205841901959</v>
+      </c>
+      <c r="H30">
+        <v>0.9995215454331511</v>
+      </c>
+      <c r="I30">
+        <v>1.000394719354505</v>
+      </c>
+      <c r="J30">
+        <v>0.9998205841901959</v>
+      </c>
+      <c r="K30">
+        <v>0.9998205841901959</v>
+      </c>
+      <c r="L30">
+        <v>0.9998205841901959</v>
+      </c>
+      <c r="M30">
+        <v>1.000269128293422</v>
+      </c>
+      <c r="N30">
+        <v>1.000269128293422</v>
+      </c>
+      <c r="O30">
+        <v>1.00031099198045</v>
+      </c>
+      <c r="P30">
+        <v>1.000119613592347</v>
+      </c>
+      <c r="Q30">
+        <v>1.000119613592347</v>
+      </c>
+      <c r="R30">
+        <v>1.000044856241809</v>
+      </c>
+      <c r="S30">
+        <v>1.000044856241809</v>
+      </c>
+      <c r="T30">
+        <v>1.000015948292482</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9978151848530901</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.008739226681147</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.008739226681147</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9978151848530901</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9978151848530901</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9941738376901514</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.004806578754361</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9978151848530901</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9978151848530901</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9978151848530901</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.003277205767119</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.003277205767119</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.003786996762866</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.001456532129109</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.001456532129109</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000546195310104</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000546195310104</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000194199614155</v>
       </c>
     </row>
